--- a/content/project/the-penis-girl-observer/pgirl_db.xlsx
+++ b/content/project/the-penis-girl-observer/pgirl_db.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="589">
   <si>
     <t>SourceFile</t>
   </si>
@@ -497,6 +497,117 @@
     <t>145</t>
   </si>
   <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
     <t>IMG_8785 pgirl.JPG</t>
   </si>
   <si>
@@ -932,6 +1043,117 @@
     <t>IMG_9469 PC sprinkles.JPG</t>
   </si>
   <si>
+    <t>IMG_9485 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9486 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9487 pgirl PC.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9489 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9490 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9491 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9496 pgirl PC circle-A.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9553 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9629 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9630 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9631 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9632 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9633 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9634 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9635 pcrew circle-A.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9636 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9637 pcrew circle-A.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9638 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9639 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9640 pgirl circle-A.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9641 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9642 pcrew.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9643 PC.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9644 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9645 pcrew.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9646 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9647 pgirl PC.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9648 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9721 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9765 pgirl.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9777 pcrew.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9794 hate.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9795 hate.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9809.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9814 bye.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9815 bye.JPG</t>
+  </si>
+  <si>
+    <t>IMG_9816 pgirl hate.JPG</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -1034,6 +1256,30 @@
     <t>2020:07:07</t>
   </si>
   <si>
+    <t>2020:07:12</t>
+  </si>
+  <si>
+    <t>2020:07:15</t>
+  </si>
+  <si>
+    <t>2020:07:21</t>
+  </si>
+  <si>
+    <t>2020:07:31</t>
+  </si>
+  <si>
+    <t>2020:08:07</t>
+  </si>
+  <si>
+    <t>2020:08:16</t>
+  </si>
+  <si>
+    <t>2020:08:25</t>
+  </si>
+  <si>
+    <t>2020:08:31</t>
+  </si>
+  <si>
     <t>45.5249833333333 -122.660569444444</t>
   </si>
   <si>
@@ -1428,6 +1674,111 @@
   </si>
   <si>
     <t>45.5232055555556 -122.660613888889</t>
+  </si>
+  <si>
+    <t>45.5217666666667 -122.666038888889</t>
+  </si>
+  <si>
+    <t>45.5226583333333 -122.665925</t>
+  </si>
+  <si>
+    <t>45.5227805555556 -122.665977777778</t>
+  </si>
+  <si>
+    <t>45.5231361111111 -122.671591666667</t>
+  </si>
+  <si>
+    <t>45.5232722222222 -122.670472222222</t>
+  </si>
+  <si>
+    <t>45.5250166666667 -122.664633333333</t>
+  </si>
+  <si>
+    <t>45.5099916666667 -122.681113888889</t>
+  </si>
+  <si>
+    <t>45.5201027777778 -122.674508333333</t>
+  </si>
+  <si>
+    <t>45.5368472222222 -122.674391666667</t>
+  </si>
+  <si>
+    <t>45.5379194444444 -122.674561111111</t>
+  </si>
+  <si>
+    <t>45.538325 -122.6746</t>
+  </si>
+  <si>
+    <t>45.5399388888889 -122.675819444444</t>
+  </si>
+  <si>
+    <t>45.5402361111111 -122.676208333333</t>
+  </si>
+  <si>
+    <t>45.5409 -122.675788888889</t>
+  </si>
+  <si>
+    <t>45.5416805555556 -122.675872222222</t>
+  </si>
+  <si>
+    <t>45.5426944444444 -122.675408333333</t>
+  </si>
+  <si>
+    <t>45.5428972222222 -122.675622222222</t>
+  </si>
+  <si>
+    <t>45.5433055555556 -122.674780555556</t>
+  </si>
+  <si>
+    <t>45.546475 -122.675705555556</t>
+  </si>
+  <si>
+    <t>45.5468444444444 -122.675583333333</t>
+  </si>
+  <si>
+    <t>45.5475611111111 -122.675513888889</t>
+  </si>
+  <si>
+    <t>45.5487416666667 -122.675513888889</t>
+  </si>
+  <si>
+    <t>45.5488805555556 -122.675627777778</t>
+  </si>
+  <si>
+    <t>45.5495944444444 -122.675566666667</t>
+  </si>
+  <si>
+    <t>45.5499444444444 -122.675536111111</t>
+  </si>
+  <si>
+    <t>45.5501722222222 -122.675444444444</t>
+  </si>
+  <si>
+    <t>45.5509611111111 -122.675530555556</t>
+  </si>
+  <si>
+    <t>45.5520083333333 -122.675552777778</t>
+  </si>
+  <si>
+    <t>45.5112194444444 -122.680411111111</t>
+  </si>
+  <si>
+    <t>45.5313805555556 -122.648391666667</t>
+  </si>
+  <si>
+    <t>45.5280583333333 -122.666113888889</t>
+  </si>
+  <si>
+    <t>45.5280611111111 -122.666091666667</t>
+  </si>
+  <si>
+    <t>45.5590888888889 -122.666969444444</t>
+  </si>
+  <si>
+    <t>45.5590888888889 -122.666916666667</t>
+  </si>
+  <si>
+    <t>45.5591361111111 -122.661727777778</t>
   </si>
 </sst>
 </file>
@@ -1534,37 +1885,37 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I2" t="n">
         <v>192.2579193</v>
       </c>
       <c r="J2" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K2" t="n">
         <v>192.2579193</v>
       </c>
       <c r="L2" t="s">
-        <v>311</v>
+        <v>385</v>
       </c>
       <c r="M2" t="n">
         <v>14.25944828</v>
@@ -1579,7 +1930,7 @@
         <v>-122.660569444444</v>
       </c>
       <c r="Q2" t="s">
-        <v>340</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3">
@@ -1587,37 +1938,37 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I3" t="n">
         <v>5.825033186</v>
       </c>
       <c r="J3" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K3" t="n">
         <v>5.825033186</v>
       </c>
       <c r="L3" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="M3" t="n">
         <v>14.24846055</v>
@@ -1632,7 +1983,7 @@
         <v>-122.660605555556</v>
       </c>
       <c r="Q3" t="s">
-        <v>341</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4">
@@ -1640,37 +1991,37 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D4" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I4" t="n">
         <v>83.17121116</v>
       </c>
       <c r="J4" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K4" t="n">
         <v>83.17121116</v>
       </c>
       <c r="L4" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="M4" t="n">
         <v>14.24122061</v>
@@ -1685,7 +2036,7 @@
         <v>-122.657591666667</v>
       </c>
       <c r="Q4" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5">
@@ -1693,37 +2044,37 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D5" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
       </c>
       <c r="H5" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I5" t="n">
         <v>166.6346283</v>
       </c>
       <c r="J5" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K5" t="n">
         <v>166.6346283</v>
       </c>
       <c r="L5" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="M5" t="n">
         <v>14.27563647</v>
@@ -1738,7 +2089,7 @@
         <v>-122.654761111111</v>
       </c>
       <c r="Q5" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6">
@@ -1746,37 +2097,37 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D6" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
       </c>
       <c r="F6" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
       </c>
       <c r="H6" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I6" t="n">
         <v>5.736898422</v>
       </c>
       <c r="J6" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K6" t="n">
         <v>5.736898422</v>
       </c>
       <c r="L6" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="M6" t="n">
         <v>14.35985886</v>
@@ -1791,7 +2142,7 @@
         <v>-122.654166666667</v>
       </c>
       <c r="Q6" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7">
@@ -1799,37 +2150,37 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D7" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
       </c>
       <c r="F7" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
       </c>
       <c r="H7" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I7" t="n">
         <v>8.620748523</v>
       </c>
       <c r="J7" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K7" t="n">
         <v>8.620748523</v>
       </c>
       <c r="L7" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="M7" t="n">
         <v>4.986216196</v>
@@ -1844,7 +2195,7 @@
         <v>-122.649611111111</v>
       </c>
       <c r="Q7" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8">
@@ -1852,37 +2203,37 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D8" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
       </c>
       <c r="F8" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
       </c>
       <c r="H8" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I8" t="n">
         <v>111.6457596</v>
       </c>
       <c r="J8" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K8" t="n">
         <v>111.6457596</v>
       </c>
       <c r="L8" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="M8" t="n">
         <v>14.27131164</v>
@@ -1897,7 +2248,7 @@
         <v>-122.658263888889</v>
       </c>
       <c r="Q8" t="s">
-        <v>346</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9">
@@ -1905,37 +2256,37 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D9" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
       </c>
       <c r="F9" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
       </c>
       <c r="H9" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I9" t="n">
         <v>184.0702211</v>
       </c>
       <c r="J9" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K9" t="n">
         <v>184.0702211</v>
       </c>
       <c r="L9" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="M9" t="n">
         <v>14.33224786</v>
@@ -1950,7 +2301,7 @@
         <v>-122.655494444444</v>
       </c>
       <c r="Q9" t="s">
-        <v>347</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10">
@@ -1958,37 +2309,37 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D10" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
       </c>
       <c r="F10" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
       </c>
       <c r="H10" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I10" t="n">
         <v>92.79730222</v>
       </c>
       <c r="J10" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K10" t="n">
         <v>92.79730222</v>
       </c>
       <c r="L10" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="M10" t="n">
         <v>14.30957393</v>
@@ -2003,7 +2354,7 @@
         <v>-122.654952777778</v>
       </c>
       <c r="Q10" t="s">
-        <v>348</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11">
@@ -2011,37 +2362,37 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D11" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E11" t="n">
         <v>0.0</v>
       </c>
       <c r="F11" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
       </c>
       <c r="H11" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I11" t="n">
         <v>302.2902527</v>
       </c>
       <c r="J11" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K11" t="n">
         <v>302.2902527</v>
       </c>
       <c r="L11" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="M11" t="n">
         <v>14.31044328</v>
@@ -2056,7 +2407,7 @@
         <v>-122.654122222222</v>
       </c>
       <c r="Q11" t="s">
-        <v>349</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12">
@@ -2064,37 +2415,37 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D12" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E12" t="n">
         <v>0.0</v>
       </c>
       <c r="F12" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
       </c>
       <c r="H12" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I12" t="n">
         <v>15.41723727</v>
       </c>
       <c r="J12" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K12" t="n">
         <v>15.41723727</v>
       </c>
       <c r="L12" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="M12" t="n">
         <v>4.973490523</v>
@@ -2109,7 +2460,7 @@
         <v>-122.649619444444</v>
       </c>
       <c r="Q12" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13">
@@ -2117,37 +2468,37 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D13" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E13" t="n">
         <v>0.0</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G13" t="n">
         <v>0.7617702019</v>
       </c>
       <c r="H13" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I13" t="n">
         <v>287.1892092</v>
       </c>
       <c r="J13" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K13" t="n">
         <v>287.1892092</v>
       </c>
       <c r="L13" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="M13" t="n">
         <v>14.28954938</v>
@@ -2162,7 +2513,7 @@
         <v>-122.655905555556</v>
       </c>
       <c r="Q13" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14">
@@ -2170,37 +2521,37 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D14" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E14" t="n">
         <v>0.0</v>
       </c>
       <c r="F14" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
       </c>
       <c r="H14" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I14" t="n">
         <v>356.6898192</v>
       </c>
       <c r="J14" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K14" t="n">
         <v>356.6898192</v>
       </c>
       <c r="L14" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="M14" t="n">
         <v>14.33485235</v>
@@ -2215,7 +2566,7 @@
         <v>-122.655822222222</v>
       </c>
       <c r="Q14" t="s">
-        <v>352</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15">
@@ -2223,37 +2574,37 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D15" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E15" t="n">
         <v>0.0</v>
       </c>
       <c r="F15" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
       </c>
       <c r="H15" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I15" t="n">
         <v>64.9613266</v>
       </c>
       <c r="J15" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K15" t="n">
         <v>64.9613266</v>
       </c>
       <c r="L15" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="M15" t="n">
         <v>14.26273101</v>
@@ -2268,7 +2619,7 @@
         <v>-122.673011111111</v>
       </c>
       <c r="Q15" t="s">
-        <v>353</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16">
@@ -2276,37 +2627,37 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D16" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
       </c>
       <c r="F16" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G16" t="n">
         <v>0.7238089338</v>
       </c>
       <c r="H16" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I16" t="n">
         <v>109.0749817</v>
       </c>
       <c r="J16" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K16" t="n">
         <v>109.0749817</v>
       </c>
       <c r="L16" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="M16" t="n">
         <v>14.23847091</v>
@@ -2321,7 +2672,7 @@
         <v>-122.671263888889</v>
       </c>
       <c r="Q16" t="s">
-        <v>354</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17">
@@ -2329,37 +2680,37 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D17" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E17" t="n">
         <v>0.0</v>
       </c>
       <c r="F17" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
       </c>
       <c r="H17" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I17" t="n">
         <v>279.5889588</v>
       </c>
       <c r="J17" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K17" t="n">
         <v>279.5889588</v>
       </c>
       <c r="L17" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="M17" t="n">
         <v>14.24171414</v>
@@ -2374,7 +2725,7 @@
         <v>-122.668219444444</v>
       </c>
       <c r="Q17" t="s">
-        <v>355</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18">
@@ -2382,37 +2733,37 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D18" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E18" t="n">
         <v>0.0</v>
       </c>
       <c r="F18" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
       </c>
       <c r="H18" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I18" t="n">
         <v>249.2712555</v>
       </c>
       <c r="J18" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K18" t="n">
         <v>249.2712555</v>
       </c>
       <c r="L18" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="M18" t="n">
         <v>14.24149951</v>
@@ -2427,7 +2778,7 @@
         <v>-122.667358333333</v>
       </c>
       <c r="Q18" t="s">
-        <v>356</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19">
@@ -2435,37 +2786,37 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D19" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E19" t="n">
         <v>0.0</v>
       </c>
       <c r="F19" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G19" t="n">
         <v>0.9831586427</v>
       </c>
       <c r="H19" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I19" t="n">
         <v>207.1023256</v>
       </c>
       <c r="J19" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K19" t="n">
         <v>207.1023256</v>
       </c>
       <c r="L19" t="s">
-        <v>314</v>
+        <v>388</v>
       </c>
       <c r="M19" t="n">
         <v>14.24489684</v>
@@ -2480,7 +2831,7 @@
         <v>-122.667419444444</v>
       </c>
       <c r="Q19" t="s">
-        <v>357</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20">
@@ -2488,37 +2839,37 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="C20" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D20" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E20" t="n">
         <v>0.0</v>
       </c>
       <c r="F20" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
       </c>
       <c r="H20" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I20" t="n">
         <v>300.2726441</v>
       </c>
       <c r="J20" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K20" t="n">
         <v>300.2726441</v>
       </c>
       <c r="L20" t="s">
-        <v>314</v>
+        <v>388</v>
       </c>
       <c r="M20" t="n">
         <v>14.23555564</v>
@@ -2533,7 +2884,7 @@
         <v>-122.669525</v>
       </c>
       <c r="Q20" t="s">
-        <v>358</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21">
@@ -2541,37 +2892,37 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D21" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E21" t="n">
         <v>0.0</v>
       </c>
       <c r="F21" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G21" t="n">
         <v>0.7454446263</v>
       </c>
       <c r="H21" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I21" t="n">
         <v>233.2108307</v>
       </c>
       <c r="J21" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K21" t="n">
         <v>233.2108307</v>
       </c>
       <c r="L21" t="s">
-        <v>314</v>
+        <v>388</v>
       </c>
       <c r="M21" t="n">
         <v>14.26440658</v>
@@ -2586,7 +2937,7 @@
         <v>-122.670144444444</v>
       </c>
       <c r="Q21" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22">
@@ -2594,37 +2945,37 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D22" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E22" t="n">
         <v>0.0</v>
       </c>
       <c r="F22" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
       </c>
       <c r="H22" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I22" t="n">
         <v>39.70669935</v>
       </c>
       <c r="J22" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K22" t="n">
         <v>39.70669935</v>
       </c>
       <c r="L22" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="M22" t="n">
         <v>14.24353307</v>
@@ -2639,7 +2990,7 @@
         <v>-122.666563888889</v>
       </c>
       <c r="Q22" t="s">
-        <v>360</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23">
@@ -2647,37 +2998,37 @@
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D23" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E23" t="n">
         <v>0.0</v>
       </c>
       <c r="F23" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
       </c>
       <c r="H23" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I23" t="n">
         <v>194.026123</v>
       </c>
       <c r="J23" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K23" t="n">
         <v>194.026123</v>
       </c>
       <c r="L23" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="M23" t="n">
         <v>4.988314284</v>
@@ -2692,7 +3043,7 @@
         <v>-122.651663888889</v>
       </c>
       <c r="Q23" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24">
@@ -2700,37 +3051,37 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="C24" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D24" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E24" t="n">
         <v>0.0</v>
       </c>
       <c r="F24" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
       </c>
       <c r="H24" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I24" t="n">
         <v>169.0488892</v>
       </c>
       <c r="J24" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K24" t="n">
         <v>169.0488892</v>
       </c>
       <c r="L24" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="M24" t="n">
         <v>14.26432862</v>
@@ -2745,7 +3096,7 @@
         <v>-122.656927777778</v>
       </c>
       <c r="Q24" t="s">
-        <v>362</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25">
@@ -2753,37 +3104,37 @@
         <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="C25" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D25" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E25" t="n">
         <v>0.0</v>
       </c>
       <c r="F25" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G25" t="n">
         <v>0.4138308541</v>
       </c>
       <c r="H25" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I25" t="n">
         <v>177.8994752</v>
       </c>
       <c r="J25" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K25" t="n">
         <v>177.8994752</v>
       </c>
       <c r="L25" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="M25" t="n">
         <v>14.24365604</v>
@@ -2798,7 +3149,7 @@
         <v>-122.660719444444</v>
       </c>
       <c r="Q25" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26">
@@ -2806,7 +3157,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="C26" t="e">
         <v>#N/A</v>
@@ -2859,7 +3210,7 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="C27" t="e">
         <v>#N/A</v>
@@ -2912,37 +3263,37 @@
         <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="C28" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D28" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E28" t="n">
         <v>0.0</v>
       </c>
       <c r="F28" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
       </c>
       <c r="H28" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I28" t="n">
         <v>15.42126084</v>
       </c>
       <c r="J28" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K28" t="n">
         <v>15.42126084</v>
       </c>
       <c r="L28" t="s">
-        <v>316</v>
+        <v>390</v>
       </c>
       <c r="M28" t="n">
         <v>14.24170845</v>
@@ -2957,7 +3308,7 @@
         <v>-122.658569444444</v>
       </c>
       <c r="Q28" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29">
@@ -2965,37 +3316,37 @@
         <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="C29" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D29" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E29" t="n">
         <v>0.0</v>
       </c>
       <c r="F29" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I29" t="n">
         <v>267.71521</v>
       </c>
       <c r="J29" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K29" t="n">
         <v>267.71521</v>
       </c>
       <c r="L29" t="s">
-        <v>316</v>
+        <v>390</v>
       </c>
       <c r="M29" t="n">
         <v>14.27265929</v>
@@ -3010,7 +3361,7 @@
         <v>-122.657325</v>
       </c>
       <c r="Q29" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30">
@@ -3018,37 +3369,37 @@
         <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="C30" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D30" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E30" t="n">
         <v>0.0</v>
       </c>
       <c r="F30" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G30" t="n">
         <v>1.484215362</v>
       </c>
       <c r="H30" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I30" t="n">
         <v>117.7469484</v>
       </c>
       <c r="J30" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K30" t="n">
         <v>117.7469484</v>
       </c>
       <c r="L30" t="s">
-        <v>316</v>
+        <v>390</v>
       </c>
       <c r="M30" t="n">
         <v>14.24692223</v>
@@ -3063,7 +3414,7 @@
         <v>-122.656777777778</v>
       </c>
       <c r="Q30" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31">
@@ -3071,37 +3422,37 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="C31" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D31" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E31" t="n">
         <v>0.0</v>
       </c>
       <c r="F31" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G31" t="n">
         <v>0.5622017104</v>
       </c>
       <c r="H31" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I31" t="n">
         <v>92.59418489</v>
       </c>
       <c r="J31" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K31" t="n">
         <v>92.59418489</v>
       </c>
       <c r="L31" t="s">
-        <v>316</v>
+        <v>390</v>
       </c>
       <c r="M31" t="n">
         <v>14.26779603</v>
@@ -3116,7 +3467,7 @@
         <v>-122.656197222222</v>
       </c>
       <c r="Q31" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32">
@@ -3124,37 +3475,37 @@
         <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="C32" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D32" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E32" t="n">
         <v>0.0</v>
       </c>
       <c r="F32" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G32" t="n">
         <v>0.0</v>
       </c>
       <c r="H32" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I32" t="n">
         <v>212.6905517</v>
       </c>
       <c r="J32" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K32" t="n">
         <v>212.6905517</v>
       </c>
       <c r="L32" t="s">
-        <v>316</v>
+        <v>390</v>
       </c>
       <c r="M32" t="n">
         <v>14.2496777</v>
@@ -3169,7 +3520,7 @@
         <v>-122.654105555556</v>
       </c>
       <c r="Q32" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33">
@@ -3177,37 +3528,37 @@
         <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="C33" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D33" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E33" t="n">
         <v>0.0</v>
       </c>
       <c r="F33" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G33" t="n">
         <v>0.8178040501</v>
       </c>
       <c r="H33" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I33" t="n">
         <v>88.47457887</v>
       </c>
       <c r="J33" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K33" t="n">
         <v>88.47457887</v>
       </c>
       <c r="L33" t="s">
-        <v>316</v>
+        <v>390</v>
       </c>
       <c r="M33" t="n">
         <v>14.28382924</v>
@@ -3222,7 +3573,7 @@
         <v>-122.650575</v>
       </c>
       <c r="Q33" t="s">
-        <v>369</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34">
@@ -3230,37 +3581,37 @@
         <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="C34" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D34" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E34" t="n">
         <v>0.0</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G34" t="n">
         <v>0.0</v>
       </c>
       <c r="H34" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I34" t="n">
         <v>286.239441</v>
       </c>
       <c r="J34" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K34" t="n">
         <v>286.239441</v>
       </c>
       <c r="L34" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M34" t="n">
         <v>14.24638732</v>
@@ -3275,7 +3626,7 @@
         <v>-122.650597222222</v>
       </c>
       <c r="Q34" t="s">
-        <v>370</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35">
@@ -3283,37 +3634,37 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="C35" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D35" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E35" t="n">
         <v>0.0</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G35" t="n">
         <v>0.0</v>
       </c>
       <c r="H35" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I35" t="n">
         <v>222.7026672</v>
       </c>
       <c r="J35" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K35" t="n">
         <v>222.7026672</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M35" t="n">
         <v>14.23627661</v>
@@ -3328,7 +3679,7 @@
         <v>-122.654480555556</v>
       </c>
       <c r="Q35" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36">
@@ -3336,37 +3687,37 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="C36" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D36" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E36" t="n">
         <v>0.0</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G36" t="n">
         <v>0.0</v>
       </c>
       <c r="H36" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I36" t="n">
         <v>62.82070542</v>
       </c>
       <c r="J36" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K36" t="n">
         <v>62.82070542</v>
       </c>
       <c r="L36" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M36" t="n">
         <v>14.27387541</v>
@@ -3381,7 +3732,7 @@
         <v>-122.660530555556</v>
       </c>
       <c r="Q36" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37">
@@ -3389,37 +3740,37 @@
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D37" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E37" t="n">
         <v>0.0</v>
       </c>
       <c r="F37" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G37" t="n">
         <v>0.0</v>
       </c>
       <c r="H37" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I37" t="n">
         <v>260.0368349</v>
       </c>
       <c r="J37" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K37" t="n">
         <v>260.0368349</v>
       </c>
       <c r="L37" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M37" t="n">
         <v>14.25204285</v>
@@ -3434,7 +3785,7 @@
         <v>-122.661172222222</v>
       </c>
       <c r="Q37" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38">
@@ -3442,37 +3793,37 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D38" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E38" t="n">
         <v>0.0</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G38" t="n">
         <v>1.533827381</v>
       </c>
       <c r="H38" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I38" t="n">
         <v>347.496582</v>
       </c>
       <c r="J38" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K38" t="n">
         <v>347.496582</v>
       </c>
       <c r="L38" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M38" t="n">
         <v>14.24909177</v>
@@ -3487,7 +3838,7 @@
         <v>-122.66195</v>
       </c>
       <c r="Q38" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39">
@@ -3495,37 +3846,37 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="C39" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D39" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E39" t="n">
         <v>0.0</v>
       </c>
       <c r="F39" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G39" t="n">
         <v>0.0</v>
       </c>
       <c r="H39" t="s">
-        <v>310</v>
+        <v>384</v>
       </c>
       <c r="I39" t="n">
         <v>72.3167953</v>
       </c>
       <c r="J39" t="s">
-        <v>310</v>
+        <v>384</v>
       </c>
       <c r="K39" t="n">
         <v>72.3167953</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M39" t="n">
         <v>14.26766562</v>
@@ -3540,7 +3891,7 @@
         <v>-122.660819444444</v>
       </c>
       <c r="Q39" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40">
@@ -3548,37 +3899,37 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="C40" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D40" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E40" t="n">
         <v>0.0</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G40" t="n">
         <v>0.4611041548</v>
       </c>
       <c r="H40" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I40" t="n">
         <v>105.1288453</v>
       </c>
       <c r="J40" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K40" t="n">
         <v>105.1288453</v>
       </c>
       <c r="L40" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M40" t="n">
         <v>25.22833399</v>
@@ -3593,7 +3944,7 @@
         <v>-122.660605555556</v>
       </c>
       <c r="Q40" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41">
@@ -3601,37 +3952,37 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="C41" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D41" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E41" t="n">
         <v>0.0</v>
       </c>
       <c r="F41" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G41" t="n">
         <v>0.3394648431</v>
       </c>
       <c r="H41" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I41" t="n">
         <v>115.402298</v>
       </c>
       <c r="J41" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K41" t="n">
         <v>115.402298</v>
       </c>
       <c r="L41" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M41" t="n">
         <v>17.60521223</v>
@@ -3646,7 +3997,7 @@
         <v>-122.660613888889</v>
       </c>
       <c r="Q41" t="s">
-        <v>377</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42">
@@ -3654,37 +4005,37 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="C42" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D42" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E42" t="n">
         <v>0.0</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G42" t="n">
         <v>0.7790384396</v>
       </c>
       <c r="H42" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I42" t="n">
         <v>167.2525939</v>
       </c>
       <c r="J42" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K42" t="n">
         <v>167.2525939</v>
       </c>
       <c r="L42" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M42" t="n">
         <v>14.25187809</v>
@@ -3699,7 +4050,7 @@
         <v>-122.660888888889</v>
       </c>
       <c r="Q42" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43">
@@ -3707,37 +4058,37 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="C43" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D43" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E43" t="n">
         <v>0.0</v>
       </c>
       <c r="F43" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G43" t="n">
         <v>0.0</v>
       </c>
       <c r="H43" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I43" t="n">
         <v>179.0656126</v>
       </c>
       <c r="J43" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K43" t="n">
         <v>179.0656126</v>
       </c>
       <c r="L43" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M43" t="n">
         <v>14.2910559</v>
@@ -3752,7 +4103,7 @@
         <v>-122.660522222222</v>
       </c>
       <c r="Q43" t="s">
-        <v>379</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44">
@@ -3760,37 +4111,37 @@
         <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="C44" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D44" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E44" t="n">
         <v>0.0</v>
       </c>
       <c r="F44" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G44" t="n">
         <v>0.0</v>
       </c>
       <c r="H44" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I44" t="n">
         <v>195.2158814</v>
       </c>
       <c r="J44" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K44" t="n">
         <v>195.2158814</v>
       </c>
       <c r="L44" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M44" t="n">
         <v>14.28456021</v>
@@ -3805,7 +4156,7 @@
         <v>-122.660177777778</v>
       </c>
       <c r="Q44" t="s">
-        <v>380</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45">
@@ -3813,37 +4164,37 @@
         <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="C45" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D45" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E45" t="n">
         <v>0.0</v>
       </c>
       <c r="F45" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G45" t="n">
         <v>0.0</v>
       </c>
       <c r="H45" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I45" t="n">
         <v>13.97115136</v>
       </c>
       <c r="J45" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K45" t="n">
         <v>13.97115136</v>
       </c>
       <c r="L45" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M45" t="n">
         <v>14.23850683</v>
@@ -3858,7 +4209,7 @@
         <v>-122.658644444444</v>
       </c>
       <c r="Q45" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46">
@@ -3866,37 +4217,37 @@
         <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="C46" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D46" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E46" t="n">
         <v>0.0</v>
       </c>
       <c r="F46" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G46" t="n">
         <v>0.0</v>
       </c>
       <c r="H46" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I46" t="n">
         <v>285.815155</v>
       </c>
       <c r="J46" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K46" t="n">
         <v>285.815155</v>
       </c>
       <c r="L46" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M46" t="n">
         <v>14.24333397</v>
@@ -3911,7 +4262,7 @@
         <v>-122.658522222222</v>
       </c>
       <c r="Q46" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47">
@@ -3919,37 +4270,37 @@
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="C47" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D47" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E47" t="n">
         <v>0.0</v>
       </c>
       <c r="F47" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G47" t="n">
         <v>0.7647010914</v>
       </c>
       <c r="H47" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I47" t="n">
         <v>95.61013031</v>
       </c>
       <c r="J47" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K47" t="n">
         <v>95.61013031</v>
       </c>
       <c r="L47" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M47" t="n">
         <v>14.23733515</v>
@@ -3964,7 +4315,7 @@
         <v>-122.656586111111</v>
       </c>
       <c r="Q47" t="s">
-        <v>383</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48">
@@ -3972,37 +4323,37 @@
         <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="C48" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D48" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E48" t="n">
         <v>0.0</v>
       </c>
       <c r="F48" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G48" t="n">
         <v>0.0</v>
       </c>
       <c r="H48" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I48" t="n">
         <v>182.1505279</v>
       </c>
       <c r="J48" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K48" t="n">
         <v>182.1505279</v>
       </c>
       <c r="L48" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M48" t="n">
         <v>14.25131628</v>
@@ -4017,7 +4368,7 @@
         <v>-122.654647222222</v>
       </c>
       <c r="Q48" t="s">
-        <v>384</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49">
@@ -4025,37 +4376,37 @@
         <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="C49" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D49" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E49" t="n">
         <v>0.0</v>
       </c>
       <c r="F49" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G49" t="n">
         <v>0.0</v>
       </c>
       <c r="H49" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I49" t="n">
         <v>318.3870849</v>
       </c>
       <c r="J49" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K49" t="n">
         <v>318.3870849</v>
       </c>
       <c r="L49" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M49" t="n">
         <v>14.29307224</v>
@@ -4070,7 +4421,7 @@
         <v>-122.660447222222</v>
       </c>
       <c r="Q49" t="s">
-        <v>385</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50">
@@ -4078,37 +4429,37 @@
         <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="C50" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D50" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E50" t="n">
         <v>0.0</v>
       </c>
       <c r="F50" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G50" t="n">
         <v>0.4401546214</v>
       </c>
       <c r="H50" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I50" t="n">
         <v>46.33764267</v>
       </c>
       <c r="J50" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K50" t="n">
         <v>46.33764267</v>
       </c>
       <c r="L50" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M50" t="n">
         <v>14.2865852</v>
@@ -4123,7 +4474,7 @@
         <v>-122.661736111111</v>
       </c>
       <c r="Q50" t="s">
-        <v>386</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51">
@@ -4131,37 +4482,37 @@
         <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="C51" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D51" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E51" t="n">
         <v>0.0</v>
       </c>
       <c r="F51" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G51" t="n">
         <v>0.0</v>
       </c>
       <c r="H51" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I51" t="n">
         <v>320.8642578</v>
       </c>
       <c r="J51" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K51" t="n">
         <v>320.8642578</v>
       </c>
       <c r="L51" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M51" t="n">
         <v>14.24330601</v>
@@ -4176,7 +4527,7 @@
         <v>-122.661766666667</v>
       </c>
       <c r="Q51" t="s">
-        <v>387</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52">
@@ -4184,37 +4535,37 @@
         <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="C52" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D52" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E52" t="n">
         <v>0.0</v>
       </c>
       <c r="F52" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G52" t="n">
         <v>0.0</v>
       </c>
       <c r="H52" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I52" t="n">
         <v>277.1438904</v>
       </c>
       <c r="J52" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K52" t="n">
         <v>277.1438904</v>
       </c>
       <c r="L52" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M52" t="n">
         <v>14.24807754</v>
@@ -4229,7 +4580,7 @@
         <v>-122.661788888889</v>
       </c>
       <c r="Q52" t="s">
-        <v>388</v>
+        <v>470</v>
       </c>
     </row>
     <row r="53">
@@ -4237,37 +4588,37 @@
         <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="C53" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D53" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E53" t="n">
         <v>0.0</v>
       </c>
       <c r="F53" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G53" t="n">
         <v>0.0</v>
       </c>
       <c r="H53" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I53" t="n">
         <v>274.4084473</v>
       </c>
       <c r="J53" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K53" t="n">
         <v>274.4084473</v>
       </c>
       <c r="L53" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M53" t="n">
         <v>14.24864169</v>
@@ -4282,7 +4633,7 @@
         <v>-122.661805555556</v>
       </c>
       <c r="Q53" t="s">
-        <v>389</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54">
@@ -4290,37 +4641,37 @@
         <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="C54" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D54" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E54" t="n">
         <v>0.0</v>
       </c>
       <c r="F54" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G54" t="n">
         <v>0.7764296292</v>
       </c>
       <c r="H54" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I54" t="n">
         <v>293.1816712</v>
       </c>
       <c r="J54" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K54" t="n">
         <v>293.1816712</v>
       </c>
       <c r="L54" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M54" t="n">
         <v>14.26406073</v>
@@ -4335,7 +4686,7 @@
         <v>-122.661811111111</v>
       </c>
       <c r="Q54" t="s">
-        <v>390</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55">
@@ -4343,37 +4694,37 @@
         <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="C55" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D55" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E55" t="n">
         <v>0.0</v>
       </c>
       <c r="F55" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G55" t="n">
         <v>0.0</v>
       </c>
       <c r="H55" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I55" t="n">
         <v>205.2917479</v>
       </c>
       <c r="J55" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K55" t="n">
         <v>205.2917479</v>
       </c>
       <c r="L55" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M55" t="n">
         <v>14.27771353</v>
@@ -4388,7 +4739,7 @@
         <v>-122.661805555556</v>
       </c>
       <c r="Q55" t="s">
-        <v>391</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56">
@@ -4396,37 +4747,37 @@
         <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="C56" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D56" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E56" t="n">
         <v>0.0</v>
       </c>
       <c r="F56" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G56" t="n">
         <v>0.0</v>
       </c>
       <c r="H56" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I56" t="n">
         <v>58.11736296</v>
       </c>
       <c r="J56" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K56" t="n">
         <v>58.11736296</v>
       </c>
       <c r="L56" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M56" t="n">
         <v>14.25541501</v>
@@ -4441,7 +4792,7 @@
         <v>-122.661811111111</v>
       </c>
       <c r="Q56" t="s">
-        <v>392</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57">
@@ -4449,37 +4800,37 @@
         <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="C57" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D57" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E57" t="n">
         <v>0.0</v>
       </c>
       <c r="F57" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G57" t="n">
         <v>0.3812408999</v>
       </c>
       <c r="H57" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I57" t="n">
         <v>284.306</v>
       </c>
       <c r="J57" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K57" t="n">
         <v>284.306</v>
       </c>
       <c r="L57" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M57" t="n">
         <v>14.26300085</v>
@@ -4494,7 +4845,7 @@
         <v>-122.661788888889</v>
       </c>
       <c r="Q57" t="s">
-        <v>393</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58">
@@ -4502,37 +4853,37 @@
         <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="C58" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D58" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E58" t="n">
         <v>0.0</v>
       </c>
       <c r="F58" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G58" t="n">
         <v>0.7274243507</v>
       </c>
       <c r="H58" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I58" t="n">
         <v>100.758667</v>
       </c>
       <c r="J58" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K58" t="n">
         <v>100.758667</v>
       </c>
       <c r="L58" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M58" t="n">
         <v>14.30534734</v>
@@ -4547,7 +4898,7 @@
         <v>-122.661566666667</v>
       </c>
       <c r="Q58" t="s">
-        <v>394</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59">
@@ -4555,37 +4906,37 @@
         <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="C59" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D59" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E59" t="n">
         <v>0.0</v>
       </c>
       <c r="F59" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G59" t="n">
         <v>1.623790029</v>
       </c>
       <c r="H59" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I59" t="n">
         <v>100.9297715</v>
       </c>
       <c r="J59" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K59" t="n">
         <v>100.9297715</v>
       </c>
       <c r="L59" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="M59" t="n">
         <v>14.27526198</v>
@@ -4600,7 +4951,7 @@
         <v>-122.660605555556</v>
       </c>
       <c r="Q59" t="s">
-        <v>395</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60">
@@ -4608,37 +4959,37 @@
         <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="C60" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D60" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E60" t="n">
         <v>0.0</v>
       </c>
       <c r="F60" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G60" t="n">
         <v>0.0</v>
       </c>
       <c r="H60" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I60" t="n">
         <v>128.9210815</v>
       </c>
       <c r="J60" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K60" t="n">
         <v>128.9210815</v>
       </c>
       <c r="L60" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="M60" t="n">
         <v>5.261382914</v>
@@ -4653,7 +5004,7 @@
         <v>-122.651702777778</v>
       </c>
       <c r="Q60" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61">
@@ -4661,37 +5012,37 @@
         <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="C61" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D61" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E61" t="n">
         <v>0.0</v>
       </c>
       <c r="F61" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G61" t="n">
         <v>0.0</v>
       </c>
       <c r="H61" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I61" t="n">
         <v>332.3772277</v>
       </c>
       <c r="J61" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K61" t="n">
         <v>332.3772277</v>
       </c>
       <c r="L61" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="M61" t="n">
         <v>14.26257069</v>
@@ -4706,7 +5057,7 @@
         <v>-122.658691666667</v>
       </c>
       <c r="Q61" t="s">
-        <v>397</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62">
@@ -4714,37 +5065,37 @@
         <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="C62" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D62" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E62" t="n">
         <v>0.0</v>
       </c>
       <c r="F62" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G62" t="n">
         <v>0.0</v>
       </c>
       <c r="H62" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I62" t="n">
         <v>303.7188724</v>
       </c>
       <c r="J62" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K62" t="n">
         <v>303.7188724</v>
       </c>
       <c r="L62" t="s">
-        <v>319</v>
+        <v>393</v>
       </c>
       <c r="M62" t="n">
         <v>14.33254661</v>
@@ -4759,7 +5110,7 @@
         <v>-122.688513888889</v>
       </c>
       <c r="Q62" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63">
@@ -4767,37 +5118,37 @@
         <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="C63" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D63" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E63" t="n">
         <v>0.0</v>
       </c>
       <c r="F63" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G63" t="n">
         <v>0.0</v>
       </c>
       <c r="H63" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I63" t="n">
         <v>306.2598572</v>
       </c>
       <c r="J63" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K63" t="n">
         <v>306.2598572</v>
       </c>
       <c r="L63" t="s">
-        <v>319</v>
+        <v>393</v>
       </c>
       <c r="M63" t="n">
         <v>14.25689735</v>
@@ -4812,7 +5163,7 @@
         <v>-122.688583333333</v>
       </c>
       <c r="Q63" t="s">
-        <v>399</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64">
@@ -4820,37 +5171,37 @@
         <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="C64" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D64" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E64" t="n">
         <v>0.0</v>
       </c>
       <c r="F64" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G64" t="n">
         <v>0.0</v>
       </c>
       <c r="H64" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I64" t="n">
         <v>62.62861635</v>
       </c>
       <c r="J64" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K64" t="n">
         <v>62.62861635</v>
       </c>
       <c r="L64" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="M64" t="n">
         <v>14.25703138</v>
@@ -4865,7 +5216,7 @@
         <v>-122.669258333333</v>
       </c>
       <c r="Q64" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
     </row>
     <row r="65">
@@ -4873,37 +5224,37 @@
         <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="C65" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D65" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E65" t="n">
         <v>0.0</v>
       </c>
       <c r="F65" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G65" t="n">
         <v>0.7876574495</v>
       </c>
       <c r="H65" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I65" t="n">
         <v>205.4967041</v>
       </c>
       <c r="J65" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K65" t="n">
         <v>205.4967041</v>
       </c>
       <c r="L65" t="s">
-        <v>321</v>
+        <v>395</v>
       </c>
       <c r="M65" t="n">
         <v>14.23637995</v>
@@ -4918,7 +5269,7 @@
         <v>-122.670319444444</v>
       </c>
       <c r="Q65" t="s">
-        <v>401</v>
+        <v>483</v>
       </c>
     </row>
     <row r="66">
@@ -4926,37 +5277,37 @@
         <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="C66" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D66" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E66" t="n">
         <v>0.0</v>
       </c>
       <c r="F66" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G66" t="n">
         <v>0.0</v>
       </c>
       <c r="H66" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I66" t="n">
         <v>165.6328734</v>
       </c>
       <c r="J66" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K66" t="n">
         <v>165.6328734</v>
       </c>
       <c r="L66" t="s">
-        <v>322</v>
+        <v>396</v>
       </c>
       <c r="M66" t="n">
         <v>65.0</v>
@@ -4971,7 +5322,7 @@
         <v>-122.674277777778</v>
       </c>
       <c r="Q66" t="s">
-        <v>402</v>
+        <v>484</v>
       </c>
     </row>
     <row r="67">
@@ -4979,37 +5330,37 @@
         <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="C67" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D67" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E67" t="n">
         <v>0.0</v>
       </c>
       <c r="F67" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G67" t="n">
         <v>0.2487526386</v>
       </c>
       <c r="H67" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I67" t="n">
         <v>247.0439607</v>
       </c>
       <c r="J67" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K67" t="n">
         <v>247.0439607</v>
       </c>
       <c r="L67" t="s">
-        <v>322</v>
+        <v>396</v>
       </c>
       <c r="M67" t="n">
         <v>46.42219938</v>
@@ -5024,7 +5375,7 @@
         <v>-122.680091666667</v>
       </c>
       <c r="Q67" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68">
@@ -5032,37 +5383,37 @@
         <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="C68" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D68" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E68" t="n">
         <v>0.0</v>
       </c>
       <c r="F68" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G68" t="n">
         <v>0.0</v>
       </c>
       <c r="H68" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I68" t="n">
         <v>183.5848846</v>
       </c>
       <c r="J68" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K68" t="n">
         <v>183.5848846</v>
       </c>
       <c r="L68" t="s">
-        <v>322</v>
+        <v>396</v>
       </c>
       <c r="M68" t="n">
         <v>65.0</v>
@@ -5077,7 +5428,7 @@
         <v>-122.686141666667</v>
       </c>
       <c r="Q68" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69">
@@ -5085,37 +5436,37 @@
         <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="C69" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D69" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E69" t="n">
         <v>0.0</v>
       </c>
       <c r="F69" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G69" t="n">
         <v>0.0</v>
       </c>
       <c r="H69" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I69" t="n">
         <v>111.4774399</v>
       </c>
       <c r="J69" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K69" t="n">
         <v>111.4774399</v>
       </c>
       <c r="L69" t="s">
-        <v>323</v>
+        <v>397</v>
       </c>
       <c r="M69" t="n">
         <v>14.80569723</v>
@@ -5130,7 +5481,7 @@
         <v>-122.675561111111</v>
       </c>
       <c r="Q69" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70">
@@ -5138,37 +5489,37 @@
         <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="C70" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D70" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E70" t="n">
         <v>0.0</v>
       </c>
       <c r="F70" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G70" t="n">
         <v>0.0</v>
       </c>
       <c r="H70" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I70" t="n">
         <v>208.1863403</v>
       </c>
       <c r="J70" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K70" t="n">
         <v>208.1863403</v>
       </c>
       <c r="L70" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="M70" t="n">
         <v>14.25207656</v>
@@ -5183,7 +5534,7 @@
         <v>-122.666358333333</v>
       </c>
       <c r="Q70" t="s">
-        <v>406</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71">
@@ -5191,37 +5542,37 @@
         <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="C71" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D71" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E71" t="n">
         <v>0.0</v>
       </c>
       <c r="F71" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G71" t="n">
         <v>0.0</v>
       </c>
       <c r="H71" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I71" t="n">
         <v>122.9819488</v>
       </c>
       <c r="J71" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K71" t="n">
         <v>122.9819488</v>
       </c>
       <c r="L71" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="M71" t="n">
         <v>14.25345883</v>
@@ -5236,7 +5587,7 @@
         <v>-122.667755555556</v>
       </c>
       <c r="Q71" t="s">
-        <v>407</v>
+        <v>489</v>
       </c>
     </row>
     <row r="72">
@@ -5244,37 +5595,37 @@
         <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="C72" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D72" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E72" t="n">
         <v>0.0</v>
       </c>
       <c r="F72" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G72" t="n">
         <v>0.0</v>
       </c>
       <c r="H72" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I72" t="n">
         <v>9.834737769</v>
       </c>
       <c r="J72" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K72" t="n">
         <v>9.834737769</v>
       </c>
       <c r="L72" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="M72" t="n">
         <v>14.24152618</v>
@@ -5289,7 +5640,7 @@
         <v>-122.668769444444</v>
       </c>
       <c r="Q72" t="s">
-        <v>408</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73">
@@ -5297,37 +5648,37 @@
         <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="C73" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D73" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E73" t="n">
         <v>0.0</v>
       </c>
       <c r="F73" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G73" t="n">
         <v>0.0</v>
       </c>
       <c r="H73" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I73" t="n">
         <v>98.09126282</v>
       </c>
       <c r="J73" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K73" t="n">
         <v>98.09126282</v>
       </c>
       <c r="L73" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="M73" t="n">
         <v>14.27651768</v>
@@ -5342,7 +5693,7 @@
         <v>-122.667144444444</v>
       </c>
       <c r="Q73" t="s">
-        <v>409</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74">
@@ -5350,37 +5701,37 @@
         <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C74" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D74" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E74" t="n">
         <v>0.0</v>
       </c>
       <c r="F74" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G74" t="n">
         <v>0.0</v>
       </c>
       <c r="H74" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I74" t="n">
         <v>137.9215087</v>
       </c>
       <c r="J74" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K74" t="n">
         <v>137.9215087</v>
       </c>
       <c r="L74" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="M74" t="n">
         <v>14.36774874</v>
@@ -5395,7 +5746,7 @@
         <v>-122.666480555556</v>
       </c>
       <c r="Q74" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75">
@@ -5403,37 +5754,37 @@
         <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="C75" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D75" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E75" t="n">
         <v>0.0</v>
       </c>
       <c r="F75" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G75" t="n">
         <v>0.5727993704</v>
       </c>
       <c r="H75" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I75" t="n">
         <v>215.9644013</v>
       </c>
       <c r="J75" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K75" t="n">
         <v>215.9644013</v>
       </c>
       <c r="L75" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="M75" t="n">
         <v>14.39476386</v>
@@ -5448,7 +5799,7 @@
         <v>-122.666405555556</v>
       </c>
       <c r="Q75" t="s">
-        <v>411</v>
+        <v>493</v>
       </c>
     </row>
     <row r="76">
@@ -5456,37 +5807,37 @@
         <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="C76" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D76" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E76" t="n">
         <v>0.0</v>
       </c>
       <c r="F76" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G76" t="n">
         <v>0.0</v>
       </c>
       <c r="H76" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I76" t="n">
         <v>38.52908325</v>
       </c>
       <c r="J76" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K76" t="n">
         <v>38.52908325</v>
       </c>
       <c r="L76" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="M76" t="n">
         <v>14.2692524</v>
@@ -5501,7 +5852,7 @@
         <v>-122.666091666667</v>
       </c>
       <c r="Q76" t="s">
-        <v>412</v>
+        <v>494</v>
       </c>
     </row>
     <row r="77">
@@ -5509,37 +5860,37 @@
         <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="C77" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D77" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E77" t="n">
         <v>0.0</v>
       </c>
       <c r="F77" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G77" t="n">
         <v>1.092177501</v>
       </c>
       <c r="H77" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I77" t="n">
         <v>351.324768</v>
       </c>
       <c r="J77" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K77" t="n">
         <v>351.324768</v>
       </c>
       <c r="L77" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="M77" t="n">
         <v>14.24324091</v>
@@ -5554,7 +5905,7 @@
         <v>-122.666772222222</v>
       </c>
       <c r="Q77" t="s">
-        <v>413</v>
+        <v>495</v>
       </c>
     </row>
     <row r="78">
@@ -5562,37 +5913,37 @@
         <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="C78" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D78" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E78" t="n">
         <v>0.0</v>
       </c>
       <c r="F78" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G78" t="n">
         <v>0.0</v>
       </c>
       <c r="H78" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I78" t="n">
         <v>258.034729</v>
       </c>
       <c r="J78" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K78" t="n">
         <v>258.034729</v>
       </c>
       <c r="L78" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="M78" t="n">
         <v>14.26332086</v>
@@ -5607,7 +5958,7 @@
         <v>-122.666144444444</v>
       </c>
       <c r="Q78" t="s">
-        <v>414</v>
+        <v>496</v>
       </c>
     </row>
     <row r="79">
@@ -5615,37 +5966,37 @@
         <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C79" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D79" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E79" t="n">
         <v>0.0</v>
       </c>
       <c r="F79" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G79" t="n">
         <v>0.6348656523</v>
       </c>
       <c r="H79" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I79" t="n">
         <v>89.88852696</v>
       </c>
       <c r="J79" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K79" t="n">
         <v>89.88852696</v>
       </c>
       <c r="L79" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="M79" t="n">
         <v>14.2611688</v>
@@ -5660,7 +6011,7 @@
         <v>-122.666108333333</v>
       </c>
       <c r="Q79" t="s">
-        <v>415</v>
+        <v>497</v>
       </c>
     </row>
     <row r="80">
@@ -5668,37 +6019,37 @@
         <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="C80" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D80" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E80" t="n">
         <v>0.0</v>
       </c>
       <c r="F80" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G80" t="n">
         <v>0.0</v>
       </c>
       <c r="H80" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I80" t="n">
         <v>244.8575134</v>
       </c>
       <c r="J80" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K80" t="n">
         <v>244.8575134</v>
       </c>
       <c r="L80" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M80" t="n">
         <v>14.23417769</v>
@@ -5713,7 +6064,7 @@
         <v>-122.660561111111</v>
       </c>
       <c r="Q80" t="s">
-        <v>416</v>
+        <v>498</v>
       </c>
     </row>
     <row r="81">
@@ -5721,37 +6072,37 @@
         <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="C81" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D81" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E81" t="n">
         <v>0.0</v>
       </c>
       <c r="F81" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G81" t="n">
         <v>0.0</v>
       </c>
       <c r="H81" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I81" t="n">
         <v>286.6746217</v>
       </c>
       <c r="J81" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K81" t="n">
         <v>286.6746217</v>
       </c>
       <c r="L81" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M81" t="n">
         <v>14.23911322</v>
@@ -5766,7 +6117,7 @@
         <v>-122.660583333333</v>
       </c>
       <c r="Q81" t="s">
-        <v>417</v>
+        <v>499</v>
       </c>
     </row>
     <row r="82">
@@ -5774,37 +6125,37 @@
         <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="C82" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D82" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E82" t="n">
         <v>0.0</v>
       </c>
       <c r="F82" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G82" t="n">
         <v>1.124054421</v>
       </c>
       <c r="H82" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I82" t="n">
         <v>233.4152223</v>
       </c>
       <c r="J82" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K82" t="n">
         <v>233.4152223</v>
       </c>
       <c r="L82" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M82" t="n">
         <v>14.23406479</v>
@@ -5819,7 +6170,7 @@
         <v>-122.660591666667</v>
       </c>
       <c r="Q82" t="s">
-        <v>418</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83">
@@ -5827,37 +6178,37 @@
         <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="C83" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D83" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E83" t="n">
         <v>0.0</v>
       </c>
       <c r="F83" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G83" t="n">
         <v>0.0</v>
       </c>
       <c r="H83" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I83" t="n">
         <v>103.5158767</v>
       </c>
       <c r="J83" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K83" t="n">
         <v>103.5158767</v>
       </c>
       <c r="L83" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M83" t="n">
         <v>14.24473654</v>
@@ -5872,7 +6223,7 @@
         <v>-122.660591666667</v>
       </c>
       <c r="Q83" t="s">
-        <v>419</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84">
@@ -5880,37 +6231,37 @@
         <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="C84" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D84" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E84" t="n">
         <v>0.0</v>
       </c>
       <c r="F84" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G84" t="n">
         <v>0.0</v>
       </c>
       <c r="H84" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I84" t="n">
         <v>263.0738832</v>
       </c>
       <c r="J84" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K84" t="n">
         <v>263.0738832</v>
       </c>
       <c r="L84" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M84" t="n">
         <v>14.24398239</v>
@@ -5925,7 +6276,7 @@
         <v>-122.660591666667</v>
       </c>
       <c r="Q84" t="s">
-        <v>420</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85">
@@ -5933,37 +6284,37 @@
         <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="C85" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D85" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E85" t="n">
         <v>0.0</v>
       </c>
       <c r="F85" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G85" t="n">
         <v>0.9995125537</v>
       </c>
       <c r="H85" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I85" t="n">
         <v>200.1544799</v>
       </c>
       <c r="J85" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K85" t="n">
         <v>200.1544799</v>
       </c>
       <c r="L85" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M85" t="n">
         <v>14.2338445</v>
@@ -5978,7 +6329,7 @@
         <v>-122.660591666667</v>
       </c>
       <c r="Q85" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
     </row>
     <row r="86">
@@ -5986,37 +6337,37 @@
         <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="C86" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D86" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E86" t="n">
         <v>0.0</v>
       </c>
       <c r="F86" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G86" t="n">
         <v>0.0</v>
       </c>
       <c r="H86" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I86" t="n">
         <v>263.1556092</v>
       </c>
       <c r="J86" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K86" t="n">
         <v>263.1556092</v>
       </c>
       <c r="L86" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M86" t="n">
         <v>14.2371997</v>
@@ -6031,7 +6382,7 @@
         <v>-122.660583333333</v>
       </c>
       <c r="Q86" t="s">
-        <v>422</v>
+        <v>504</v>
       </c>
     </row>
     <row r="87">
@@ -6039,37 +6390,37 @@
         <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="C87" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D87" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E87" t="n">
         <v>0.0</v>
       </c>
       <c r="F87" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G87" t="n">
         <v>0.0</v>
       </c>
       <c r="H87" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I87" t="n">
         <v>357.7711183</v>
       </c>
       <c r="J87" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K87" t="n">
         <v>357.7711183</v>
       </c>
       <c r="L87" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M87" t="n">
         <v>14.25516777</v>
@@ -6084,7 +6435,7 @@
         <v>-122.654127777778</v>
       </c>
       <c r="Q87" t="s">
-        <v>423</v>
+        <v>505</v>
       </c>
     </row>
     <row r="88">
@@ -6092,37 +6443,37 @@
         <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="C88" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D88" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E88" t="n">
         <v>0.0</v>
       </c>
       <c r="F88" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G88" t="n">
         <v>0.5645121011</v>
       </c>
       <c r="H88" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I88" t="n">
         <v>290.1017456</v>
       </c>
       <c r="J88" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K88" t="n">
         <v>290.1017456</v>
       </c>
       <c r="L88" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M88" t="n">
         <v>14.27319633</v>
@@ -6137,7 +6488,7 @@
         <v>-122.654297222222</v>
       </c>
       <c r="Q88" t="s">
-        <v>424</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89">
@@ -6145,37 +6496,37 @@
         <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="C89" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D89" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E89" t="n">
         <v>0.0</v>
       </c>
       <c r="F89" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G89" t="n">
         <v>0.0</v>
       </c>
       <c r="H89" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I89" t="n">
         <v>105.3122024</v>
       </c>
       <c r="J89" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K89" t="n">
         <v>105.3122024</v>
       </c>
       <c r="L89" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M89" t="n">
         <v>14.28476258</v>
@@ -6190,7 +6541,7 @@
         <v>-122.654586111111</v>
       </c>
       <c r="Q89" t="s">
-        <v>425</v>
+        <v>507</v>
       </c>
     </row>
     <row r="90">
@@ -6198,37 +6549,37 @@
         <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="C90" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D90" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E90" t="n">
         <v>0.0</v>
       </c>
       <c r="F90" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G90" t="n">
         <v>0.9940834946</v>
       </c>
       <c r="H90" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I90" t="n">
         <v>98.41316221</v>
       </c>
       <c r="J90" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K90" t="n">
         <v>98.41316221</v>
       </c>
       <c r="L90" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M90" t="n">
         <v>14.31401274</v>
@@ -6243,7 +6594,7 @@
         <v>-122.654608333333</v>
       </c>
       <c r="Q90" t="s">
-        <v>426</v>
+        <v>508</v>
       </c>
     </row>
     <row r="91">
@@ -6251,37 +6602,37 @@
         <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="C91" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D91" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E91" t="n">
         <v>0.0</v>
       </c>
       <c r="F91" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G91" t="n">
         <v>0.0</v>
       </c>
       <c r="H91" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I91" t="n">
         <v>143.3662414</v>
       </c>
       <c r="J91" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K91" t="n">
         <v>143.3662414</v>
       </c>
       <c r="L91" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M91" t="n">
         <v>14.25761004</v>
@@ -6296,7 +6647,7 @@
         <v>-122.656066666667</v>
       </c>
       <c r="Q91" t="s">
-        <v>427</v>
+        <v>509</v>
       </c>
     </row>
     <row r="92">
@@ -6304,37 +6655,37 @@
         <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="C92" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D92" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E92" t="n">
         <v>0.0</v>
       </c>
       <c r="F92" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G92" t="n">
         <v>0.8039443885</v>
       </c>
       <c r="H92" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I92" t="n">
         <v>180.2810517</v>
       </c>
       <c r="J92" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K92" t="n">
         <v>180.2810517</v>
       </c>
       <c r="L92" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M92" t="n">
         <v>14.24766916</v>
@@ -6349,7 +6700,7 @@
         <v>-122.658852777778</v>
       </c>
       <c r="Q92" t="s">
-        <v>428</v>
+        <v>510</v>
       </c>
     </row>
     <row r="93">
@@ -6357,37 +6708,37 @@
         <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="C93" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D93" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E93" t="n">
         <v>0.0</v>
       </c>
       <c r="F93" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G93" t="n">
         <v>0.0</v>
       </c>
       <c r="H93" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I93" t="n">
         <v>321.4567568</v>
       </c>
       <c r="J93" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K93" t="n">
         <v>321.4567568</v>
       </c>
       <c r="L93" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M93" t="n">
         <v>14.27138619</v>
@@ -6402,7 +6753,7 @@
         <v>-122.661736111111</v>
       </c>
       <c r="Q93" t="s">
-        <v>429</v>
+        <v>511</v>
       </c>
     </row>
     <row r="94">
@@ -6410,37 +6761,37 @@
         <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="C94" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D94" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E94" t="n">
         <v>0.0</v>
       </c>
       <c r="F94" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G94" t="n">
         <v>0.5262757469</v>
       </c>
       <c r="H94" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I94" t="n">
         <v>285.4105224</v>
       </c>
       <c r="J94" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K94" t="n">
         <v>285.4105224</v>
       </c>
       <c r="L94" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M94" t="n">
         <v>14.25490451</v>
@@ -6455,7 +6806,7 @@
         <v>-122.661627777778</v>
       </c>
       <c r="Q94" t="s">
-        <v>430</v>
+        <v>512</v>
       </c>
     </row>
     <row r="95">
@@ -6463,37 +6814,37 @@
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="C95" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D95" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E95" t="n">
         <v>0.0</v>
       </c>
       <c r="F95" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G95" t="n">
         <v>0.0</v>
       </c>
       <c r="H95" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I95" t="n">
         <v>273.7199096</v>
       </c>
       <c r="J95" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K95" t="n">
         <v>273.7199096</v>
       </c>
       <c r="L95" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M95" t="n">
         <v>14.25936768</v>
@@ -6508,7 +6859,7 @@
         <v>-122.661552777778</v>
       </c>
       <c r="Q95" t="s">
-        <v>431</v>
+        <v>513</v>
       </c>
     </row>
     <row r="96">
@@ -6516,37 +6867,37 @@
         <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="C96" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D96" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E96" t="n">
         <v>0.0</v>
       </c>
       <c r="F96" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G96" t="n">
         <v>0.0</v>
       </c>
       <c r="H96" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I96" t="n">
         <v>116.0354767</v>
       </c>
       <c r="J96" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K96" t="n">
         <v>116.0354767</v>
       </c>
       <c r="L96" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M96" t="n">
         <v>14.26484446</v>
@@ -6561,7 +6912,7 @@
         <v>-122.661530555556</v>
       </c>
       <c r="Q96" t="s">
-        <v>432</v>
+        <v>514</v>
       </c>
     </row>
     <row r="97">
@@ -6569,37 +6920,37 @@
         <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="C97" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D97" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E97" t="n">
         <v>0.0</v>
       </c>
       <c r="F97" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G97" t="n">
         <v>0.7515886362</v>
       </c>
       <c r="H97" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I97" t="n">
         <v>309.1283569</v>
       </c>
       <c r="J97" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K97" t="n">
         <v>309.1283569</v>
       </c>
       <c r="L97" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M97" t="n">
         <v>14.24607369</v>
@@ -6614,7 +6965,7 @@
         <v>-122.661552777778</v>
       </c>
       <c r="Q97" t="s">
-        <v>433</v>
+        <v>515</v>
       </c>
     </row>
     <row r="98">
@@ -6622,37 +6973,37 @@
         <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="C98" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D98" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E98" t="n">
         <v>0.0</v>
       </c>
       <c r="F98" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G98" t="n">
         <v>0.4789596974</v>
       </c>
       <c r="H98" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I98" t="n">
         <v>88.38594054</v>
       </c>
       <c r="J98" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K98" t="n">
         <v>88.38594054</v>
       </c>
       <c r="L98" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="M98" t="n">
         <v>14.26373816</v>
@@ -6667,7 +7018,7 @@
         <v>-122.661530555556</v>
       </c>
       <c r="Q98" t="s">
-        <v>434</v>
+        <v>516</v>
       </c>
     </row>
     <row r="99">
@@ -6675,7 +7026,7 @@
         <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="C99" t="e">
         <v>#N/A</v>
@@ -6728,7 +7079,7 @@
         <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="C100" t="e">
         <v>#N/A</v>
@@ -6781,7 +7132,7 @@
         <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="C101" t="e">
         <v>#N/A</v>
@@ -6834,7 +7185,7 @@
         <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="C102" t="e">
         <v>#N/A</v>
@@ -6887,7 +7238,7 @@
         <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="C103" t="e">
         <v>#N/A</v>
@@ -6940,7 +7291,7 @@
         <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="C104" t="e">
         <v>#N/A</v>
@@ -6993,7 +7344,7 @@
         <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="C105" t="e">
         <v>#N/A</v>
@@ -7046,37 +7397,37 @@
         <v>120</v>
       </c>
       <c r="B106" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="C106" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D106" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E106" t="n">
         <v>0.0</v>
       </c>
       <c r="F106" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G106" t="n">
         <v>0.0</v>
       </c>
       <c r="H106" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I106" t="n">
         <v>86.82291407</v>
       </c>
       <c r="J106" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K106" t="n">
         <v>86.82291407</v>
       </c>
       <c r="L106" t="s">
-        <v>326</v>
+        <v>400</v>
       </c>
       <c r="M106" t="n">
         <v>14.26101083</v>
@@ -7091,7 +7442,7 @@
         <v>-122.672469444444</v>
       </c>
       <c r="Q106" t="s">
-        <v>435</v>
+        <v>517</v>
       </c>
     </row>
     <row r="107">
@@ -7099,37 +7450,37 @@
         <v>121</v>
       </c>
       <c r="B107" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="C107" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D107" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E107" t="n">
         <v>0.0</v>
       </c>
       <c r="F107" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G107" t="n">
         <v>0.1461019026</v>
       </c>
       <c r="H107" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I107" t="n">
         <v>243.8619383</v>
       </c>
       <c r="J107" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K107" t="n">
         <v>243.8619383</v>
       </c>
       <c r="L107" t="s">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="M107" t="n">
         <v>14.75231867</v>
@@ -7144,7 +7495,7 @@
         <v>-122.664366666667</v>
       </c>
       <c r="Q107" t="s">
-        <v>436</v>
+        <v>518</v>
       </c>
     </row>
     <row r="108">
@@ -7152,37 +7503,37 @@
         <v>122</v>
       </c>
       <c r="B108" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="C108" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D108" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E108" t="n">
         <v>0.0</v>
       </c>
       <c r="F108" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G108" t="n">
         <v>0.412528099</v>
       </c>
       <c r="H108" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I108" t="n">
         <v>141.5048523</v>
       </c>
       <c r="J108" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K108" t="n">
         <v>141.5048523</v>
       </c>
       <c r="L108" t="s">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="M108" t="n">
         <v>14.23558199</v>
@@ -7197,7 +7548,7 @@
         <v>-122.666633333333</v>
       </c>
       <c r="Q108" t="s">
-        <v>437</v>
+        <v>519</v>
       </c>
     </row>
     <row r="109">
@@ -7205,37 +7556,37 @@
         <v>123</v>
       </c>
       <c r="B109" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D109" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E109" t="n">
         <v>0.0</v>
       </c>
       <c r="F109" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G109" t="n">
         <v>0.0</v>
       </c>
       <c r="H109" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I109" t="n">
         <v>101.9422378</v>
       </c>
       <c r="J109" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K109" t="n">
         <v>101.9422378</v>
       </c>
       <c r="L109" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
       <c r="M109" t="n">
         <v>14.23587928</v>
@@ -7250,7 +7601,7 @@
         <v>-122.667175</v>
       </c>
       <c r="Q109" t="s">
-        <v>438</v>
+        <v>520</v>
       </c>
     </row>
     <row r="110">
@@ -7258,37 +7609,37 @@
         <v>124</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="C110" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D110" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E110" t="n">
         <v>0.0</v>
       </c>
       <c r="F110" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G110" t="n">
         <v>0.0</v>
       </c>
       <c r="H110" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I110" t="n">
         <v>70.75743866</v>
       </c>
       <c r="J110" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K110" t="n">
         <v>70.75743866</v>
       </c>
       <c r="L110" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="M110" t="n">
         <v>7.765485647</v>
@@ -7303,7 +7654,7 @@
         <v>-122.675452777778</v>
       </c>
       <c r="Q110" t="s">
-        <v>439</v>
+        <v>521</v>
       </c>
     </row>
     <row r="111">
@@ -7311,37 +7662,37 @@
         <v>125</v>
       </c>
       <c r="B111" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="C111" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D111" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E111" t="n">
         <v>0.0</v>
       </c>
       <c r="F111" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G111" t="n">
         <v>0.559722762</v>
       </c>
       <c r="H111" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I111" t="n">
         <v>50.93582916</v>
       </c>
       <c r="J111" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K111" t="n">
         <v>50.93582916</v>
       </c>
       <c r="L111" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="M111" t="n">
         <v>7.59934548</v>
@@ -7356,7 +7707,7 @@
         <v>-122.675522222222</v>
       </c>
       <c r="Q111" t="s">
-        <v>440</v>
+        <v>522</v>
       </c>
     </row>
     <row r="112">
@@ -7364,37 +7715,37 @@
         <v>126</v>
       </c>
       <c r="B112" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="C112" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D112" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E112" t="n">
         <v>0.0</v>
       </c>
       <c r="F112" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G112" t="n">
         <v>0.5851943222</v>
       </c>
       <c r="H112" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I112" t="n">
         <v>355.3511353</v>
       </c>
       <c r="J112" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K112" t="n">
         <v>355.3511353</v>
       </c>
       <c r="L112" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="M112" t="n">
         <v>4.989301886</v>
@@ -7409,7 +7760,7 @@
         <v>-122.675652777778</v>
       </c>
       <c r="Q112" t="s">
-        <v>441</v>
+        <v>523</v>
       </c>
     </row>
     <row r="113">
@@ -7417,37 +7768,37 @@
         <v>127</v>
       </c>
       <c r="B113" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="C113" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D113" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E113" t="n">
         <v>0.0</v>
       </c>
       <c r="F113" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G113" t="n">
         <v>0.0</v>
       </c>
       <c r="H113" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I113" t="n">
         <v>34.62850952</v>
       </c>
       <c r="J113" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K113" t="n">
         <v>34.62850952</v>
       </c>
       <c r="L113" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="M113" t="n">
         <v>5.114383013</v>
@@ -7462,7 +7813,7 @@
         <v>-122.675011111111</v>
       </c>
       <c r="Q113" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
     </row>
     <row r="114">
@@ -7470,37 +7821,37 @@
         <v>128</v>
       </c>
       <c r="B114" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="C114" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D114" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E114" t="n">
         <v>0.0</v>
       </c>
       <c r="F114" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G114" t="n">
         <v>0.0</v>
       </c>
       <c r="H114" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I114" t="n">
         <v>348.4757998</v>
       </c>
       <c r="J114" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K114" t="n">
         <v>348.4757998</v>
       </c>
       <c r="L114" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="M114" t="n">
         <v>6.822975518</v>
@@ -7515,7 +7866,7 @@
         <v>-122.674994444444</v>
       </c>
       <c r="Q114" t="s">
-        <v>443</v>
+        <v>525</v>
       </c>
     </row>
     <row r="115">
@@ -7523,37 +7874,37 @@
         <v>129</v>
       </c>
       <c r="B115" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="C115" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D115" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E115" t="n">
         <v>0.0</v>
       </c>
       <c r="F115" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G115" t="n">
         <v>0.8525737131</v>
       </c>
       <c r="H115" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I115" t="n">
         <v>261.1131592</v>
       </c>
       <c r="J115" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K115" t="n">
         <v>261.1131592</v>
       </c>
       <c r="L115" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="M115" t="n">
         <v>7.593432453</v>
@@ -7568,7 +7919,7 @@
         <v>-122.67495</v>
       </c>
       <c r="Q115" t="s">
-        <v>444</v>
+        <v>526</v>
       </c>
     </row>
     <row r="116">
@@ -7576,37 +7927,37 @@
         <v>130</v>
       </c>
       <c r="B116" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="C116" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D116" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E116" t="n">
         <v>0.0</v>
       </c>
       <c r="F116" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G116" t="n">
         <v>0.0</v>
       </c>
       <c r="H116" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I116" t="n">
         <v>217.0833894</v>
       </c>
       <c r="J116" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K116" t="n">
         <v>217.0833894</v>
       </c>
       <c r="L116" t="s">
-        <v>330</v>
+        <v>404</v>
       </c>
       <c r="M116" t="n">
         <v>14.35985194</v>
@@ -7621,7 +7972,7 @@
         <v>-122.672613888889</v>
       </c>
       <c r="Q116" t="s">
-        <v>445</v>
+        <v>527</v>
       </c>
     </row>
     <row r="117">
@@ -7629,37 +7980,37 @@
         <v>131</v>
       </c>
       <c r="B117" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="C117" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D117" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E117" t="n">
         <v>0.0</v>
       </c>
       <c r="F117" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G117" t="n">
         <v>0.0</v>
       </c>
       <c r="H117" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I117" t="n">
         <v>102.9481354</v>
       </c>
       <c r="J117" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K117" t="n">
         <v>102.9481354</v>
       </c>
       <c r="L117" t="s">
-        <v>331</v>
+        <v>405</v>
       </c>
       <c r="M117" t="n">
         <v>14.30579667</v>
@@ -7674,7 +8025,7 @@
         <v>-122.681594444444</v>
       </c>
       <c r="Q117" t="s">
-        <v>446</v>
+        <v>528</v>
       </c>
     </row>
     <row r="118">
@@ -7682,37 +8033,37 @@
         <v>132</v>
       </c>
       <c r="B118" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="C118" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D118" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E118" t="n">
         <v>0.0</v>
       </c>
       <c r="F118" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G118" t="n">
         <v>0.0</v>
       </c>
       <c r="H118" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I118" t="n">
         <v>308.3638001</v>
       </c>
       <c r="J118" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K118" t="n">
         <v>308.3638001</v>
       </c>
       <c r="L118" t="s">
-        <v>332</v>
+        <v>406</v>
       </c>
       <c r="M118" t="n">
         <v>14.25536039</v>
@@ -7727,7 +8078,7 @@
         <v>-122.668830555556</v>
       </c>
       <c r="Q118" t="s">
-        <v>447</v>
+        <v>529</v>
       </c>
     </row>
     <row r="119">
@@ -7735,37 +8086,37 @@
         <v>133</v>
       </c>
       <c r="B119" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="C119" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D119" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E119" t="n">
         <v>0.0</v>
       </c>
       <c r="F119" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G119" t="n">
         <v>0.9383842715</v>
       </c>
       <c r="H119" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I119" t="n">
         <v>66.28729248</v>
       </c>
       <c r="J119" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K119" t="n">
         <v>66.28729248</v>
       </c>
       <c r="L119" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="M119" t="n">
         <v>14.43975032</v>
@@ -7780,7 +8131,7 @@
         <v>-122.672569444444</v>
       </c>
       <c r="Q119" t="s">
-        <v>448</v>
+        <v>530</v>
       </c>
     </row>
     <row r="120">
@@ -7788,7 +8139,7 @@
         <v>134</v>
       </c>
       <c r="B120" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="C120" t="e">
         <v>#N/A</v>
@@ -7841,37 +8192,37 @@
         <v>135</v>
       </c>
       <c r="B121" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="C121" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D121" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E121" t="n">
         <v>0.0</v>
       </c>
       <c r="F121" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G121" t="n">
         <v>0.2765066261</v>
       </c>
       <c r="H121" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I121" t="n">
         <v>39.97636417</v>
       </c>
       <c r="J121" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K121" t="n">
         <v>39.97636417</v>
       </c>
       <c r="L121" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="M121" t="n">
         <v>14.24439993</v>
@@ -7886,7 +8237,7 @@
         <v>-122.673216666667</v>
       </c>
       <c r="Q121" t="s">
-        <v>449</v>
+        <v>531</v>
       </c>
     </row>
     <row r="122">
@@ -7894,37 +8245,37 @@
         <v>136</v>
       </c>
       <c r="B122" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="C122" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D122" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E122" t="n">
         <v>0.0</v>
       </c>
       <c r="F122" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G122" t="n">
         <v>0.0</v>
       </c>
       <c r="H122" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I122" t="n">
         <v>165.3105623</v>
       </c>
       <c r="J122" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K122" t="n">
         <v>165.3105623</v>
       </c>
       <c r="L122" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="M122" t="n">
         <v>14.24741272</v>
@@ -7939,7 +8290,7 @@
         <v>-122.668822222222</v>
       </c>
       <c r="Q122" t="s">
-        <v>450</v>
+        <v>532</v>
       </c>
     </row>
     <row r="123">
@@ -7947,37 +8298,37 @@
         <v>137</v>
       </c>
       <c r="B123" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="C123" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D123" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E123" t="n">
         <v>0.0</v>
       </c>
       <c r="F123" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G123" t="n">
         <v>0.0</v>
       </c>
       <c r="H123" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I123" t="n">
         <v>205.313614</v>
       </c>
       <c r="J123" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K123" t="n">
         <v>205.313614</v>
       </c>
       <c r="L123" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="M123" t="n">
         <v>14.24427177</v>
@@ -7992,7 +8343,7 @@
         <v>-122.670144444444</v>
       </c>
       <c r="Q123" t="s">
-        <v>451</v>
+        <v>533</v>
       </c>
     </row>
     <row r="124">
@@ -8000,37 +8351,37 @@
         <v>138</v>
       </c>
       <c r="B124" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="C124" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D124" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E124" t="n">
         <v>0.0</v>
       </c>
       <c r="F124" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G124" t="n">
         <v>0.6440588316</v>
       </c>
       <c r="H124" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I124" t="n">
         <v>316.6781921</v>
       </c>
       <c r="J124" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K124" t="n">
         <v>316.6781921</v>
       </c>
       <c r="L124" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="M124" t="n">
         <v>14.35149938</v>
@@ -8045,7 +8396,7 @@
         <v>-122.678902777778</v>
       </c>
       <c r="Q124" t="s">
-        <v>452</v>
+        <v>534</v>
       </c>
     </row>
     <row r="125">
@@ -8053,37 +8404,37 @@
         <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="C125" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D125" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E125" t="n">
         <v>0.0</v>
       </c>
       <c r="F125" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G125" t="n">
         <v>0.0</v>
       </c>
       <c r="H125" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I125" t="n">
         <v>198.9709779</v>
       </c>
       <c r="J125" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K125" t="n">
         <v>198.9709779</v>
       </c>
       <c r="L125" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="M125" t="n">
         <v>14.30873886</v>
@@ -8098,7 +8449,7 @@
         <v>-122.666519444444</v>
       </c>
       <c r="Q125" t="s">
-        <v>453</v>
+        <v>535</v>
       </c>
     </row>
     <row r="126">
@@ -8106,37 +8457,37 @@
         <v>140</v>
       </c>
       <c r="B126" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="C126" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D126" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E126" t="n">
         <v>0.0</v>
       </c>
       <c r="F126" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G126" t="n">
         <v>0.0</v>
       </c>
       <c r="H126" t="s">
-        <v>310</v>
+        <v>384</v>
       </c>
       <c r="I126" t="n">
         <v>177.2470091</v>
       </c>
       <c r="J126" t="s">
-        <v>310</v>
+        <v>384</v>
       </c>
       <c r="K126" t="n">
         <v>177.2470091</v>
       </c>
       <c r="L126" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="M126" t="n">
         <v>14.30873886</v>
@@ -8151,7 +8502,7 @@
         <v>-122.666519444444</v>
       </c>
       <c r="Q126" t="s">
-        <v>453</v>
+        <v>535</v>
       </c>
     </row>
     <row r="127">
@@ -8159,37 +8510,37 @@
         <v>141</v>
       </c>
       <c r="B127" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="C127" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D127" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E127" t="n">
         <v>0.0</v>
       </c>
       <c r="F127" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G127" t="n">
         <v>0.7947050336</v>
       </c>
       <c r="H127" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I127" t="n">
         <v>198.9217986</v>
       </c>
       <c r="J127" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K127" t="n">
         <v>198.9217986</v>
       </c>
       <c r="L127" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="M127" t="n">
         <v>35.26592075</v>
@@ -8204,7 +8555,7 @@
         <v>-122.666313888889</v>
       </c>
       <c r="Q127" t="s">
-        <v>454</v>
+        <v>536</v>
       </c>
     </row>
     <row r="128">
@@ -8212,37 +8563,37 @@
         <v>142</v>
       </c>
       <c r="B128" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="C128" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D128" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E128" t="n">
         <v>0.0</v>
       </c>
       <c r="F128" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G128" t="n">
         <v>0.0</v>
       </c>
       <c r="H128" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I128" t="n">
         <v>213.0949248</v>
       </c>
       <c r="J128" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K128" t="n">
         <v>213.0949248</v>
       </c>
       <c r="L128" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="M128" t="n">
         <v>14.24884759</v>
@@ -8257,7 +8608,7 @@
         <v>-122.660972222222</v>
       </c>
       <c r="Q128" t="s">
-        <v>455</v>
+        <v>537</v>
       </c>
     </row>
     <row r="129">
@@ -8265,37 +8616,37 @@
         <v>143</v>
       </c>
       <c r="B129" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="C129" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D129" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E129" t="n">
         <v>0.0</v>
       </c>
       <c r="F129" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G129" t="n">
         <v>0.0</v>
       </c>
       <c r="H129" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I129" t="n">
         <v>136.3082122</v>
       </c>
       <c r="J129" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K129" t="n">
         <v>136.3082122</v>
       </c>
       <c r="L129" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="M129" t="n">
         <v>14.24738032</v>
@@ -8310,7 +8661,7 @@
         <v>-122.661002777778</v>
       </c>
       <c r="Q129" t="s">
-        <v>456</v>
+        <v>538</v>
       </c>
     </row>
     <row r="130">
@@ -8318,37 +8669,37 @@
         <v>144</v>
       </c>
       <c r="B130" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="C130" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D130" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E130" t="n">
         <v>0.0</v>
       </c>
       <c r="F130" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G130" t="n">
         <v>0.0</v>
       </c>
       <c r="H130" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I130" t="n">
         <v>306.3364258</v>
       </c>
       <c r="J130" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K130" t="n">
         <v>306.3364258</v>
       </c>
       <c r="L130" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="M130" t="n">
         <v>15.36396353</v>
@@ -8363,7 +8714,7 @@
         <v>-122.660827777778</v>
       </c>
       <c r="Q130" t="s">
-        <v>457</v>
+        <v>539</v>
       </c>
     </row>
     <row r="131">
@@ -8371,37 +8722,37 @@
         <v>145</v>
       </c>
       <c r="B131" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="C131" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D131" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E131" t="n">
         <v>0.0</v>
       </c>
       <c r="F131" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G131" t="n">
         <v>0.0</v>
       </c>
       <c r="H131" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I131" t="n">
         <v>304.7110596</v>
       </c>
       <c r="J131" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K131" t="n">
         <v>304.7110596</v>
       </c>
       <c r="L131" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="M131" t="n">
         <v>14.25525612</v>
@@ -8416,7 +8767,7 @@
         <v>-122.660841666667</v>
       </c>
       <c r="Q131" t="s">
-        <v>458</v>
+        <v>540</v>
       </c>
     </row>
     <row r="132">
@@ -8424,7 +8775,7 @@
         <v>146</v>
       </c>
       <c r="B132" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="C132" t="e">
         <v>#N/A</v>
@@ -8477,37 +8828,37 @@
         <v>147</v>
       </c>
       <c r="B133" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="C133" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D133" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E133" t="n">
         <v>0.0</v>
       </c>
       <c r="F133" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G133" t="n">
         <v>0.0</v>
       </c>
       <c r="H133" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I133" t="n">
         <v>175.3884888</v>
       </c>
       <c r="J133" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K133" t="n">
         <v>175.3884888</v>
       </c>
       <c r="L133" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="M133" t="n">
         <v>14.24040411</v>
@@ -8522,7 +8873,7 @@
         <v>-122.667519444444</v>
       </c>
       <c r="Q133" t="s">
-        <v>459</v>
+        <v>541</v>
       </c>
     </row>
     <row r="134">
@@ -8530,37 +8881,37 @@
         <v>148</v>
       </c>
       <c r="B134" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="C134" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D134" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E134" t="n">
         <v>0.0</v>
       </c>
       <c r="F134" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G134" t="n">
         <v>0.7260190203</v>
       </c>
       <c r="H134" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I134" t="n">
         <v>206.7182006</v>
       </c>
       <c r="J134" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K134" t="n">
         <v>206.7182006</v>
       </c>
       <c r="L134" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="M134" t="n">
         <v>14.22483387</v>
@@ -8575,7 +8926,7 @@
         <v>-122.666336111111</v>
       </c>
       <c r="Q134" t="s">
-        <v>460</v>
+        <v>542</v>
       </c>
     </row>
     <row r="135">
@@ -8583,37 +8934,37 @@
         <v>149</v>
       </c>
       <c r="B135" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="C135" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D135" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E135" t="n">
         <v>0.0</v>
       </c>
       <c r="F135" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G135" t="n">
         <v>0.3846592334</v>
       </c>
       <c r="H135" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I135" t="n">
         <v>122.1488571</v>
       </c>
       <c r="J135" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K135" t="n">
         <v>122.1488571</v>
       </c>
       <c r="L135" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="M135" t="n">
         <v>14.2507094</v>
@@ -8628,7 +8979,7 @@
         <v>-122.667777777778</v>
       </c>
       <c r="Q135" t="s">
-        <v>461</v>
+        <v>543</v>
       </c>
     </row>
     <row r="136">
@@ -8636,37 +8987,37 @@
         <v>150</v>
       </c>
       <c r="B136" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="C136" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D136" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E136" t="n">
         <v>0.0</v>
       </c>
       <c r="F136" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G136" t="n">
         <v>0.0</v>
       </c>
       <c r="H136" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I136" t="n">
         <v>3.439344407</v>
       </c>
       <c r="J136" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K136" t="n">
         <v>3.439344407</v>
       </c>
       <c r="L136" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="M136" t="n">
         <v>14.25691138</v>
@@ -8681,7 +9032,7 @@
         <v>-122.661980555556</v>
       </c>
       <c r="Q136" t="s">
-        <v>462</v>
+        <v>544</v>
       </c>
     </row>
     <row r="137">
@@ -8689,37 +9040,37 @@
         <v>151</v>
       </c>
       <c r="B137" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="C137" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D137" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E137" t="n">
         <v>0.0</v>
       </c>
       <c r="F137" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G137" t="n">
         <v>0.0</v>
       </c>
       <c r="H137" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I137" t="n">
         <v>279.3940734</v>
       </c>
       <c r="J137" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K137" t="n">
         <v>279.3940734</v>
       </c>
       <c r="L137" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="M137" t="n">
         <v>14.30190746</v>
@@ -8734,7 +9085,7 @@
         <v>-122.661797222222</v>
       </c>
       <c r="Q137" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
     </row>
     <row r="138">
@@ -8742,37 +9093,37 @@
         <v>152</v>
       </c>
       <c r="B138" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="C138" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D138" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E138" t="n">
         <v>0.0</v>
       </c>
       <c r="F138" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G138" t="n">
         <v>0.3165904581</v>
       </c>
       <c r="H138" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I138" t="n">
         <v>272.7308657</v>
       </c>
       <c r="J138" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K138" t="n">
         <v>272.7308657</v>
       </c>
       <c r="L138" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="M138" t="n">
         <v>9.942296369</v>
@@ -8787,7 +9138,7 @@
         <v>-122.661858333333</v>
       </c>
       <c r="Q138" t="s">
-        <v>464</v>
+        <v>546</v>
       </c>
     </row>
     <row r="139">
@@ -8795,37 +9146,37 @@
         <v>153</v>
       </c>
       <c r="B139" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="C139" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D139" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E139" t="n">
         <v>0.0</v>
       </c>
       <c r="F139" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G139" t="n">
         <v>0.0</v>
       </c>
       <c r="H139" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I139" t="n">
         <v>277.1422425</v>
       </c>
       <c r="J139" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K139" t="n">
         <v>277.1422425</v>
       </c>
       <c r="L139" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="M139" t="n">
         <v>14.24274687</v>
@@ -8840,7 +9191,7 @@
         <v>-122.661872222222</v>
       </c>
       <c r="Q139" t="s">
-        <v>465</v>
+        <v>547</v>
       </c>
     </row>
     <row r="140">
@@ -8848,37 +9199,37 @@
         <v>154</v>
       </c>
       <c r="B140" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="C140" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D140" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E140" t="n">
         <v>0.0</v>
       </c>
       <c r="F140" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G140" t="n">
         <v>0.0</v>
       </c>
       <c r="H140" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I140" t="n">
         <v>8.328117371</v>
       </c>
       <c r="J140" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K140" t="n">
         <v>8.328117371</v>
       </c>
       <c r="L140" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="M140" t="n">
         <v>14.33323683</v>
@@ -8893,7 +9244,7 @@
         <v>-122.677222222222</v>
       </c>
       <c r="Q140" t="s">
-        <v>466</v>
+        <v>548</v>
       </c>
     </row>
     <row r="141">
@@ -8901,7 +9252,7 @@
         <v>155</v>
       </c>
       <c r="B141" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="C141" t="e">
         <v>#N/A</v>
@@ -8954,37 +9305,37 @@
         <v>156</v>
       </c>
       <c r="B142" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C142" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D142" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E142" t="n">
         <v>0.0</v>
       </c>
       <c r="F142" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G142" t="n">
         <v>0.0</v>
       </c>
       <c r="H142" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I142" t="n">
         <v>297.7593688</v>
       </c>
       <c r="J142" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K142" t="n">
         <v>297.7593688</v>
       </c>
       <c r="L142" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="M142" t="n">
         <v>14.34681571</v>
@@ -8999,7 +9350,7 @@
         <v>-122.679419444444</v>
       </c>
       <c r="Q142" t="s">
-        <v>467</v>
+        <v>549</v>
       </c>
     </row>
     <row r="143">
@@ -9007,37 +9358,37 @@
         <v>157</v>
       </c>
       <c r="B143" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="C143" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D143" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E143" t="n">
         <v>0.0</v>
       </c>
       <c r="F143" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G143" t="n">
         <v>0.7014485107</v>
       </c>
       <c r="H143" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I143" t="n">
         <v>188.7689362</v>
       </c>
       <c r="J143" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K143" t="n">
         <v>188.7689362</v>
       </c>
       <c r="L143" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="M143" t="n">
         <v>14.30837718</v>
@@ -9052,7 +9403,7 @@
         <v>-122.666427777778</v>
       </c>
       <c r="Q143" t="s">
-        <v>468</v>
+        <v>550</v>
       </c>
     </row>
     <row r="144">
@@ -9060,37 +9411,37 @@
         <v>158</v>
       </c>
       <c r="B144" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="C144" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D144" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E144" t="n">
         <v>0.0</v>
       </c>
       <c r="F144" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G144" t="n">
         <v>0.0</v>
       </c>
       <c r="H144" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I144" t="n">
         <v>139.2220764</v>
       </c>
       <c r="J144" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K144" t="n">
         <v>139.2220764</v>
       </c>
       <c r="L144" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="M144" t="n">
         <v>14.31526536</v>
@@ -9105,7 +9456,7 @@
         <v>-122.660636111111</v>
       </c>
       <c r="Q144" t="s">
-        <v>469</v>
+        <v>551</v>
       </c>
     </row>
     <row r="145">
@@ -9113,37 +9464,37 @@
         <v>159</v>
       </c>
       <c r="B145" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="C145" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D145" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E145" t="n">
         <v>0.0</v>
       </c>
       <c r="F145" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G145" t="n">
         <v>0.0</v>
       </c>
       <c r="H145" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I145" t="n">
         <v>142.9481812</v>
       </c>
       <c r="J145" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K145" t="n">
         <v>142.9481812</v>
       </c>
       <c r="L145" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="M145" t="n">
         <v>14.26026801</v>
@@ -9158,7 +9509,7 @@
         <v>-122.660561111111</v>
       </c>
       <c r="Q145" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
     </row>
     <row r="146">
@@ -9166,37 +9517,37 @@
         <v>160</v>
       </c>
       <c r="B146" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="C146" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="D146" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="E146" t="n">
         <v>0.0</v>
       </c>
       <c r="F146" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="G146" t="n">
         <v>0.0</v>
       </c>
       <c r="H146" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="I146" t="n">
         <v>231.8347321</v>
       </c>
       <c r="J146" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="K146" t="n">
         <v>231.8347321</v>
       </c>
       <c r="L146" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="M146" t="n">
         <v>14.27774372</v>
@@ -9211,7 +9562,1968 @@
         <v>-122.660613888889</v>
       </c>
       <c r="Q146" t="s">
-        <v>471</v>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147" t="s">
+        <v>343</v>
+      </c>
+      <c r="C147" t="s">
+        <v>380</v>
+      </c>
+      <c r="D147" t="s">
+        <v>381</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>382</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>383</v>
+      </c>
+      <c r="I147" t="n">
+        <v>75.59590909</v>
+      </c>
+      <c r="J147" t="s">
+        <v>383</v>
+      </c>
+      <c r="K147" t="n">
+        <v>75.59590909</v>
+      </c>
+      <c r="L147" t="s">
+        <v>414</v>
+      </c>
+      <c r="M147" t="n">
+        <v>14.25361819</v>
+      </c>
+      <c r="N147" t="n">
+        <v>7.058179329</v>
+      </c>
+      <c r="O147" t="n">
+        <v>45.5217666666667</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-122.666038888889</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>162</v>
+      </c>
+      <c r="B148" t="s">
+        <v>344</v>
+      </c>
+      <c r="C148" t="s">
+        <v>380</v>
+      </c>
+      <c r="D148" t="s">
+        <v>381</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>382</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>383</v>
+      </c>
+      <c r="I148" t="n">
+        <v>325.8321533</v>
+      </c>
+      <c r="J148" t="s">
+        <v>383</v>
+      </c>
+      <c r="K148" t="n">
+        <v>325.8321533</v>
+      </c>
+      <c r="L148" t="s">
+        <v>414</v>
+      </c>
+      <c r="M148" t="n">
+        <v>14.25457457</v>
+      </c>
+      <c r="N148" t="n">
+        <v>7.971621895</v>
+      </c>
+      <c r="O148" t="n">
+        <v>45.5226583333333</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-122.665925</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>163</v>
+      </c>
+      <c r="B149" t="s">
+        <v>345</v>
+      </c>
+      <c r="C149" t="s">
+        <v>380</v>
+      </c>
+      <c r="D149" t="s">
+        <v>381</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F149" t="s">
+        <v>382</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>383</v>
+      </c>
+      <c r="I149" t="n">
+        <v>101.2114563</v>
+      </c>
+      <c r="J149" t="s">
+        <v>383</v>
+      </c>
+      <c r="K149" t="n">
+        <v>101.2114563</v>
+      </c>
+      <c r="L149" t="s">
+        <v>414</v>
+      </c>
+      <c r="M149" t="n">
+        <v>14.28542769</v>
+      </c>
+      <c r="N149" t="n">
+        <v>4.274081896</v>
+      </c>
+      <c r="O149" t="n">
+        <v>45.5227805555556</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-122.665977777778</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>164</v>
+      </c>
+      <c r="B150" t="s">
+        <v>346</v>
+      </c>
+      <c r="C150" t="s">
+        <v>380</v>
+      </c>
+      <c r="D150" t="s">
+        <v>381</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F150" t="s">
+        <v>382</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H150" t="s">
+        <v>383</v>
+      </c>
+      <c r="I150" t="n">
+        <v>185.0531617</v>
+      </c>
+      <c r="J150" t="s">
+        <v>383</v>
+      </c>
+      <c r="K150" t="n">
+        <v>185.0531617</v>
+      </c>
+      <c r="L150" t="s">
+        <v>414</v>
+      </c>
+      <c r="M150" t="n">
+        <v>14.4061393</v>
+      </c>
+      <c r="N150" t="n">
+        <v>11.45879971</v>
+      </c>
+      <c r="O150" t="n">
+        <v>45.5231361111111</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-122.671591666667</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" t="s">
+        <v>347</v>
+      </c>
+      <c r="C151" t="s">
+        <v>380</v>
+      </c>
+      <c r="D151" t="s">
+        <v>381</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>382</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.02706782893</v>
+      </c>
+      <c r="H151" t="s">
+        <v>383</v>
+      </c>
+      <c r="I151" t="n">
+        <v>67.30558776</v>
+      </c>
+      <c r="J151" t="s">
+        <v>383</v>
+      </c>
+      <c r="K151" t="n">
+        <v>67.30558776</v>
+      </c>
+      <c r="L151" t="s">
+        <v>414</v>
+      </c>
+      <c r="M151" t="n">
+        <v>40.44014085</v>
+      </c>
+      <c r="N151" t="n">
+        <v>12.21544763</v>
+      </c>
+      <c r="O151" t="n">
+        <v>45.5232722222222</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-122.670472222222</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>166</v>
+      </c>
+      <c r="B152" t="s">
+        <v>348</v>
+      </c>
+      <c r="C152" t="s">
+        <v>380</v>
+      </c>
+      <c r="D152" t="s">
+        <v>381</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F152" t="s">
+        <v>382</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>383</v>
+      </c>
+      <c r="I152" t="n">
+        <v>41.2154617</v>
+      </c>
+      <c r="J152" t="s">
+        <v>383</v>
+      </c>
+      <c r="K152" t="n">
+        <v>41.2154617</v>
+      </c>
+      <c r="L152" t="s">
+        <v>414</v>
+      </c>
+      <c r="M152" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>10.44161128</v>
+      </c>
+      <c r="O152" t="n">
+        <v>45.5250166666667</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-122.664633333333</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>167</v>
+      </c>
+      <c r="B153" t="s">
+        <v>349</v>
+      </c>
+      <c r="C153" t="s">
+        <v>380</v>
+      </c>
+      <c r="D153" t="s">
+        <v>381</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F153" t="s">
+        <v>382</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>383</v>
+      </c>
+      <c r="I153" t="n">
+        <v>201.7223968</v>
+      </c>
+      <c r="J153" t="s">
+        <v>383</v>
+      </c>
+      <c r="K153" t="n">
+        <v>201.7223968</v>
+      </c>
+      <c r="L153" t="s">
+        <v>415</v>
+      </c>
+      <c r="M153" t="n">
+        <v>14.26611344</v>
+      </c>
+      <c r="N153" t="n">
+        <v>42.92837479</v>
+      </c>
+      <c r="O153" t="n">
+        <v>45.5099916666667</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-122.681113888889</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>168</v>
+      </c>
+      <c r="B154" t="s">
+        <v>350</v>
+      </c>
+      <c r="C154" t="s">
+        <v>380</v>
+      </c>
+      <c r="D154" t="s">
+        <v>381</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>382</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>383</v>
+      </c>
+      <c r="I154" t="n">
+        <v>146.6217957</v>
+      </c>
+      <c r="J154" t="s">
+        <v>383</v>
+      </c>
+      <c r="K154" t="n">
+        <v>146.6217957</v>
+      </c>
+      <c r="L154" t="s">
+        <v>416</v>
+      </c>
+      <c r="M154" t="n">
+        <v>14.27092478</v>
+      </c>
+      <c r="N154" t="n">
+        <v>11.90349217</v>
+      </c>
+      <c r="O154" t="n">
+        <v>45.5201027777778</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-122.674508333333</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B155" t="s">
+        <v>351</v>
+      </c>
+      <c r="C155" t="s">
+        <v>380</v>
+      </c>
+      <c r="D155" t="s">
+        <v>381</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F155" t="s">
+        <v>382</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.2291028052</v>
+      </c>
+      <c r="H155" t="s">
+        <v>383</v>
+      </c>
+      <c r="I155" t="n">
+        <v>268.014313</v>
+      </c>
+      <c r="J155" t="s">
+        <v>383</v>
+      </c>
+      <c r="K155" t="n">
+        <v>268.014313</v>
+      </c>
+      <c r="L155" t="s">
+        <v>417</v>
+      </c>
+      <c r="M155" t="n">
+        <v>27.28341201</v>
+      </c>
+      <c r="N155" t="n">
+        <v>20.66133443</v>
+      </c>
+      <c r="O155" t="n">
+        <v>45.5368472222222</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-122.674391666667</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>170</v>
+      </c>
+      <c r="B156" t="s">
+        <v>352</v>
+      </c>
+      <c r="C156" t="s">
+        <v>380</v>
+      </c>
+      <c r="D156" t="s">
+        <v>381</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F156" t="s">
+        <v>382</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.1139634102</v>
+      </c>
+      <c r="H156" t="s">
+        <v>383</v>
+      </c>
+      <c r="I156" t="n">
+        <v>294.7977602</v>
+      </c>
+      <c r="J156" t="s">
+        <v>383</v>
+      </c>
+      <c r="K156" t="n">
+        <v>294.7977602</v>
+      </c>
+      <c r="L156" t="s">
+        <v>417</v>
+      </c>
+      <c r="M156" t="n">
+        <v>22.51261235</v>
+      </c>
+      <c r="N156" t="n">
+        <v>17.56334545</v>
+      </c>
+      <c r="O156" t="n">
+        <v>45.5379194444444</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-122.674561111111</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>171</v>
+      </c>
+      <c r="B157" t="s">
+        <v>353</v>
+      </c>
+      <c r="C157" t="s">
+        <v>380</v>
+      </c>
+      <c r="D157" t="s">
+        <v>381</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F157" t="s">
+        <v>382</v>
+      </c>
+      <c r="G157" t="n">
+        <v>6.003124713</v>
+      </c>
+      <c r="H157" t="s">
+        <v>383</v>
+      </c>
+      <c r="I157" t="n">
+        <v>182.5492857</v>
+      </c>
+      <c r="J157" t="s">
+        <v>383</v>
+      </c>
+      <c r="K157" t="n">
+        <v>182.5492857</v>
+      </c>
+      <c r="L157" t="s">
+        <v>417</v>
+      </c>
+      <c r="M157" t="n">
+        <v>48.15969411</v>
+      </c>
+      <c r="N157" t="n">
+        <v>19.41985796</v>
+      </c>
+      <c r="O157" t="n">
+        <v>45.538325</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-122.6746</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>172</v>
+      </c>
+      <c r="B158" t="s">
+        <v>354</v>
+      </c>
+      <c r="C158" t="s">
+        <v>380</v>
+      </c>
+      <c r="D158" t="s">
+        <v>381</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F158" t="s">
+        <v>382</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.5792931918</v>
+      </c>
+      <c r="H158" t="s">
+        <v>383</v>
+      </c>
+      <c r="I158" t="n">
+        <v>358.7543945</v>
+      </c>
+      <c r="J158" t="s">
+        <v>383</v>
+      </c>
+      <c r="K158" t="n">
+        <v>358.7543945</v>
+      </c>
+      <c r="L158" t="s">
+        <v>417</v>
+      </c>
+      <c r="M158" t="n">
+        <v>31.75698938</v>
+      </c>
+      <c r="N158" t="n">
+        <v>17.52016582</v>
+      </c>
+      <c r="O158" t="n">
+        <v>45.5399388888889</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-122.675819444444</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>173</v>
+      </c>
+      <c r="B159" t="s">
+        <v>355</v>
+      </c>
+      <c r="C159" t="s">
+        <v>380</v>
+      </c>
+      <c r="D159" t="s">
+        <v>381</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F159" t="s">
+        <v>382</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2.081256628</v>
+      </c>
+      <c r="H159" t="s">
+        <v>383</v>
+      </c>
+      <c r="I159" t="n">
+        <v>106.9085006</v>
+      </c>
+      <c r="J159" t="s">
+        <v>383</v>
+      </c>
+      <c r="K159" t="n">
+        <v>106.9085006</v>
+      </c>
+      <c r="L159" t="s">
+        <v>417</v>
+      </c>
+      <c r="M159" t="n">
+        <v>54.10732253</v>
+      </c>
+      <c r="N159" t="n">
+        <v>21.41753555</v>
+      </c>
+      <c r="O159" t="n">
+        <v>45.5402361111111</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-122.676208333333</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160" t="s">
+        <v>356</v>
+      </c>
+      <c r="C160" t="s">
+        <v>380</v>
+      </c>
+      <c r="D160" t="s">
+        <v>381</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F160" t="s">
+        <v>382</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.4881895487</v>
+      </c>
+      <c r="H160" t="s">
+        <v>383</v>
+      </c>
+      <c r="I160" t="n">
+        <v>5.35735226</v>
+      </c>
+      <c r="J160" t="s">
+        <v>383</v>
+      </c>
+      <c r="K160" t="n">
+        <v>5.35735226</v>
+      </c>
+      <c r="L160" t="s">
+        <v>417</v>
+      </c>
+      <c r="M160" t="n">
+        <v>12.46903397</v>
+      </c>
+      <c r="N160" t="n">
+        <v>19.48625894</v>
+      </c>
+      <c r="O160" t="n">
+        <v>45.5409</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-122.675788888889</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>175</v>
+      </c>
+      <c r="B161" t="s">
+        <v>357</v>
+      </c>
+      <c r="C161" t="s">
+        <v>380</v>
+      </c>
+      <c r="D161" t="s">
+        <v>381</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F161" t="s">
+        <v>382</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1.744877575</v>
+      </c>
+      <c r="H161" t="s">
+        <v>383</v>
+      </c>
+      <c r="I161" t="n">
+        <v>78.03418732</v>
+      </c>
+      <c r="J161" t="s">
+        <v>383</v>
+      </c>
+      <c r="K161" t="n">
+        <v>78.03418732</v>
+      </c>
+      <c r="L161" t="s">
+        <v>417</v>
+      </c>
+      <c r="M161" t="n">
+        <v>33.58531404</v>
+      </c>
+      <c r="N161" t="n">
+        <v>25.95750863</v>
+      </c>
+      <c r="O161" t="n">
+        <v>45.5416805555556</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-122.675872222222</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>176</v>
+      </c>
+      <c r="B162" t="s">
+        <v>358</v>
+      </c>
+      <c r="C162" t="s">
+        <v>380</v>
+      </c>
+      <c r="D162" t="s">
+        <v>381</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F162" t="s">
+        <v>382</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.01869508438</v>
+      </c>
+      <c r="H162" t="s">
+        <v>383</v>
+      </c>
+      <c r="I162" t="n">
+        <v>122.5954667</v>
+      </c>
+      <c r="J162" t="s">
+        <v>383</v>
+      </c>
+      <c r="K162" t="n">
+        <v>122.5954667</v>
+      </c>
+      <c r="L162" t="s">
+        <v>417</v>
+      </c>
+      <c r="M162" t="n">
+        <v>57.82106685</v>
+      </c>
+      <c r="N162" t="n">
+        <v>30.21629946</v>
+      </c>
+      <c r="O162" t="n">
+        <v>45.5426944444444</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-122.675408333333</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>177</v>
+      </c>
+      <c r="B163" t="s">
+        <v>359</v>
+      </c>
+      <c r="C163" t="s">
+        <v>380</v>
+      </c>
+      <c r="D163" t="s">
+        <v>381</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F163" t="s">
+        <v>382</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.1938265562</v>
+      </c>
+      <c r="H163" t="s">
+        <v>383</v>
+      </c>
+      <c r="I163" t="n">
+        <v>289.5884703</v>
+      </c>
+      <c r="J163" t="s">
+        <v>383</v>
+      </c>
+      <c r="K163" t="n">
+        <v>289.5884703</v>
+      </c>
+      <c r="L163" t="s">
+        <v>417</v>
+      </c>
+      <c r="M163" t="n">
+        <v>17.72633089</v>
+      </c>
+      <c r="N163" t="n">
+        <v>25.09747415</v>
+      </c>
+      <c r="O163" t="n">
+        <v>45.5428972222222</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-122.675622222222</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>178</v>
+      </c>
+      <c r="B164" t="s">
+        <v>360</v>
+      </c>
+      <c r="C164" t="s">
+        <v>380</v>
+      </c>
+      <c r="D164" t="s">
+        <v>381</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F164" t="s">
+        <v>382</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.2388359906</v>
+      </c>
+      <c r="H164" t="s">
+        <v>383</v>
+      </c>
+      <c r="I164" t="n">
+        <v>37.5337181</v>
+      </c>
+      <c r="J164" t="s">
+        <v>383</v>
+      </c>
+      <c r="K164" t="n">
+        <v>37.5337181</v>
+      </c>
+      <c r="L164" t="s">
+        <v>417</v>
+      </c>
+      <c r="M164" t="n">
+        <v>24.85102804</v>
+      </c>
+      <c r="N164" t="n">
+        <v>27.77269076</v>
+      </c>
+      <c r="O164" t="n">
+        <v>45.5433055555556</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-122.674780555556</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>179</v>
+      </c>
+      <c r="B165" t="s">
+        <v>361</v>
+      </c>
+      <c r="C165" t="s">
+        <v>380</v>
+      </c>
+      <c r="D165" t="s">
+        <v>381</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F165" t="s">
+        <v>382</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.4531089961</v>
+      </c>
+      <c r="H165" t="s">
+        <v>383</v>
+      </c>
+      <c r="I165" t="n">
+        <v>79.42811587</v>
+      </c>
+      <c r="J165" t="s">
+        <v>383</v>
+      </c>
+      <c r="K165" t="n">
+        <v>79.42811587</v>
+      </c>
+      <c r="L165" t="s">
+        <v>417</v>
+      </c>
+      <c r="M165" t="n">
+        <v>52.56824981</v>
+      </c>
+      <c r="N165" t="n">
+        <v>32.12716367</v>
+      </c>
+      <c r="O165" t="n">
+        <v>45.546475</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-122.675705555556</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>180</v>
+      </c>
+      <c r="B166" t="s">
+        <v>362</v>
+      </c>
+      <c r="C166" t="s">
+        <v>380</v>
+      </c>
+      <c r="D166" t="s">
+        <v>381</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F166" t="s">
+        <v>382</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.7725974918</v>
+      </c>
+      <c r="H166" t="s">
+        <v>383</v>
+      </c>
+      <c r="I166" t="n">
+        <v>289.6260684</v>
+      </c>
+      <c r="J166" t="s">
+        <v>383</v>
+      </c>
+      <c r="K166" t="n">
+        <v>289.6260684</v>
+      </c>
+      <c r="L166" t="s">
+        <v>417</v>
+      </c>
+      <c r="M166" t="n">
+        <v>12.73517362</v>
+      </c>
+      <c r="N166" t="n">
+        <v>49.8997555</v>
+      </c>
+      <c r="O166" t="n">
+        <v>45.5468444444444</v>
+      </c>
+      <c r="P166" t="n">
+        <v>-122.675583333333</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>181</v>
+      </c>
+      <c r="B167" t="s">
+        <v>363</v>
+      </c>
+      <c r="C167" t="s">
+        <v>380</v>
+      </c>
+      <c r="D167" t="s">
+        <v>381</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F167" t="s">
+        <v>382</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.3236713709</v>
+      </c>
+      <c r="H167" t="s">
+        <v>383</v>
+      </c>
+      <c r="I167" t="n">
+        <v>2.878897666</v>
+      </c>
+      <c r="J167" t="s">
+        <v>383</v>
+      </c>
+      <c r="K167" t="n">
+        <v>2.878897666</v>
+      </c>
+      <c r="L167" t="s">
+        <v>417</v>
+      </c>
+      <c r="M167" t="n">
+        <v>24.87646829</v>
+      </c>
+      <c r="N167" t="n">
+        <v>55.33470919</v>
+      </c>
+      <c r="O167" t="n">
+        <v>45.5475611111111</v>
+      </c>
+      <c r="P167" t="n">
+        <v>-122.675513888889</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>182</v>
+      </c>
+      <c r="B168" t="s">
+        <v>364</v>
+      </c>
+      <c r="C168" t="s">
+        <v>380</v>
+      </c>
+      <c r="D168" t="s">
+        <v>381</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F168" t="s">
+        <v>382</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.02342036927</v>
+      </c>
+      <c r="H168" t="s">
+        <v>383</v>
+      </c>
+      <c r="I168" t="n">
+        <v>290.8648682</v>
+      </c>
+      <c r="J168" t="s">
+        <v>383</v>
+      </c>
+      <c r="K168" t="n">
+        <v>290.8648682</v>
+      </c>
+      <c r="L168" t="s">
+        <v>417</v>
+      </c>
+      <c r="M168" t="n">
+        <v>25.67173401</v>
+      </c>
+      <c r="N168" t="n">
+        <v>33.90591992</v>
+      </c>
+      <c r="O168" t="n">
+        <v>45.5487416666667</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-122.675513888889</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>183</v>
+      </c>
+      <c r="B169" t="s">
+        <v>365</v>
+      </c>
+      <c r="C169" t="s">
+        <v>380</v>
+      </c>
+      <c r="D169" t="s">
+        <v>381</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F169" t="s">
+        <v>382</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.2840254903</v>
+      </c>
+      <c r="H169" t="s">
+        <v>383</v>
+      </c>
+      <c r="I169" t="n">
+        <v>290.8991696</v>
+      </c>
+      <c r="J169" t="s">
+        <v>383</v>
+      </c>
+      <c r="K169" t="n">
+        <v>290.8991696</v>
+      </c>
+      <c r="L169" t="s">
+        <v>417</v>
+      </c>
+      <c r="M169" t="n">
+        <v>14.13340314</v>
+      </c>
+      <c r="N169" t="n">
+        <v>53.54206191</v>
+      </c>
+      <c r="O169" t="n">
+        <v>45.5488805555556</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-122.675627777778</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>184</v>
+      </c>
+      <c r="B170" t="s">
+        <v>366</v>
+      </c>
+      <c r="C170" t="s">
+        <v>380</v>
+      </c>
+      <c r="D170" t="s">
+        <v>381</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F170" t="s">
+        <v>382</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.03607483954</v>
+      </c>
+      <c r="H170" t="s">
+        <v>383</v>
+      </c>
+      <c r="I170" t="n">
+        <v>64.37002567</v>
+      </c>
+      <c r="J170" t="s">
+        <v>383</v>
+      </c>
+      <c r="K170" t="n">
+        <v>64.37002567</v>
+      </c>
+      <c r="L170" t="s">
+        <v>417</v>
+      </c>
+      <c r="M170" t="n">
+        <v>21.25670574</v>
+      </c>
+      <c r="N170" t="n">
+        <v>52.23998389</v>
+      </c>
+      <c r="O170" t="n">
+        <v>45.5495944444444</v>
+      </c>
+      <c r="P170" t="n">
+        <v>-122.675566666667</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>185</v>
+      </c>
+      <c r="B171" t="s">
+        <v>367</v>
+      </c>
+      <c r="C171" t="s">
+        <v>380</v>
+      </c>
+      <c r="D171" t="s">
+        <v>381</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F171" t="s">
+        <v>382</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1.221547842</v>
+      </c>
+      <c r="H171" t="s">
+        <v>383</v>
+      </c>
+      <c r="I171" t="n">
+        <v>68.3416748</v>
+      </c>
+      <c r="J171" t="s">
+        <v>383</v>
+      </c>
+      <c r="K171" t="n">
+        <v>68.3416748</v>
+      </c>
+      <c r="L171" t="s">
+        <v>417</v>
+      </c>
+      <c r="M171" t="n">
+        <v>18.61810834</v>
+      </c>
+      <c r="N171" t="n">
+        <v>52.25947084</v>
+      </c>
+      <c r="O171" t="n">
+        <v>45.5499444444444</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-122.675536111111</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>186</v>
+      </c>
+      <c r="B172" t="s">
+        <v>368</v>
+      </c>
+      <c r="C172" t="s">
+        <v>380</v>
+      </c>
+      <c r="D172" t="s">
+        <v>381</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F172" t="s">
+        <v>382</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H172" t="s">
+        <v>383</v>
+      </c>
+      <c r="I172" t="n">
+        <v>71.45655062</v>
+      </c>
+      <c r="J172" t="s">
+        <v>383</v>
+      </c>
+      <c r="K172" t="n">
+        <v>71.45655062</v>
+      </c>
+      <c r="L172" t="s">
+        <v>417</v>
+      </c>
+      <c r="M172" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>52.10206599</v>
+      </c>
+      <c r="O172" t="n">
+        <v>45.5501722222222</v>
+      </c>
+      <c r="P172" t="n">
+        <v>-122.675444444444</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>187</v>
+      </c>
+      <c r="B173" t="s">
+        <v>369</v>
+      </c>
+      <c r="C173" t="s">
+        <v>380</v>
+      </c>
+      <c r="D173" t="s">
+        <v>381</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F173" t="s">
+        <v>382</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.9621179694</v>
+      </c>
+      <c r="H173" t="s">
+        <v>383</v>
+      </c>
+      <c r="I173" t="n">
+        <v>92.76250463</v>
+      </c>
+      <c r="J173" t="s">
+        <v>383</v>
+      </c>
+      <c r="K173" t="n">
+        <v>92.76250463</v>
+      </c>
+      <c r="L173" t="s">
+        <v>417</v>
+      </c>
+      <c r="M173" t="n">
+        <v>16.25523734</v>
+      </c>
+      <c r="N173" t="n">
+        <v>53.25838138</v>
+      </c>
+      <c r="O173" t="n">
+        <v>45.5509611111111</v>
+      </c>
+      <c r="P173" t="n">
+        <v>-122.675530555556</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>188</v>
+      </c>
+      <c r="B174" t="s">
+        <v>370</v>
+      </c>
+      <c r="C174" t="s">
+        <v>380</v>
+      </c>
+      <c r="D174" t="s">
+        <v>381</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F174" t="s">
+        <v>382</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.1751196235</v>
+      </c>
+      <c r="H174" t="s">
+        <v>383</v>
+      </c>
+      <c r="I174" t="n">
+        <v>62.99859616</v>
+      </c>
+      <c r="J174" t="s">
+        <v>383</v>
+      </c>
+      <c r="K174" t="n">
+        <v>62.99859616</v>
+      </c>
+      <c r="L174" t="s">
+        <v>417</v>
+      </c>
+      <c r="M174" t="n">
+        <v>14.97317487</v>
+      </c>
+      <c r="N174" t="n">
+        <v>54.30169762</v>
+      </c>
+      <c r="O174" t="n">
+        <v>45.5520083333333</v>
+      </c>
+      <c r="P174" t="n">
+        <v>-122.675552777778</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>189</v>
+      </c>
+      <c r="B175" t="s">
+        <v>371</v>
+      </c>
+      <c r="C175" t="s">
+        <v>380</v>
+      </c>
+      <c r="D175" t="s">
+        <v>381</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F175" t="s">
+        <v>382</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.548188023</v>
+      </c>
+      <c r="H175" t="s">
+        <v>383</v>
+      </c>
+      <c r="I175" t="n">
+        <v>216.3327942</v>
+      </c>
+      <c r="J175" t="s">
+        <v>383</v>
+      </c>
+      <c r="K175" t="n">
+        <v>216.3327942</v>
+      </c>
+      <c r="L175" t="s">
+        <v>418</v>
+      </c>
+      <c r="M175" t="n">
+        <v>14.26853105</v>
+      </c>
+      <c r="N175" t="n">
+        <v>34.9812156</v>
+      </c>
+      <c r="O175" t="n">
+        <v>45.5112194444444</v>
+      </c>
+      <c r="P175" t="n">
+        <v>-122.680411111111</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>190</v>
+      </c>
+      <c r="B176" t="s">
+        <v>372</v>
+      </c>
+      <c r="C176" t="s">
+        <v>380</v>
+      </c>
+      <c r="D176" t="s">
+        <v>381</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F176" t="s">
+        <v>382</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H176" t="s">
+        <v>383</v>
+      </c>
+      <c r="I176" t="n">
+        <v>24.01049233</v>
+      </c>
+      <c r="J176" t="s">
+        <v>383</v>
+      </c>
+      <c r="K176" t="n">
+        <v>24.01049233</v>
+      </c>
+      <c r="L176" t="s">
+        <v>419</v>
+      </c>
+      <c r="M176" t="n">
+        <v>5.233023657</v>
+      </c>
+      <c r="N176" t="n">
+        <v>47.2935061</v>
+      </c>
+      <c r="O176" t="n">
+        <v>45.5313805555556</v>
+      </c>
+      <c r="P176" t="n">
+        <v>-122.648391666667</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>191</v>
+      </c>
+      <c r="B177" t="s">
+        <v>373</v>
+      </c>
+      <c r="C177" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D177" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E177" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F177" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G177" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H177" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I177" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J177" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K177" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L177" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M177" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N177" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O177" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P177" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q177" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>192</v>
+      </c>
+      <c r="B178" t="s">
+        <v>374</v>
+      </c>
+      <c r="C178" t="s">
+        <v>380</v>
+      </c>
+      <c r="D178" t="s">
+        <v>381</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F178" t="s">
+        <v>382</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.02642761915</v>
+      </c>
+      <c r="H178" t="s">
+        <v>383</v>
+      </c>
+      <c r="I178" t="n">
+        <v>67.4493866</v>
+      </c>
+      <c r="J178" t="s">
+        <v>383</v>
+      </c>
+      <c r="K178" t="n">
+        <v>67.4493866</v>
+      </c>
+      <c r="L178" t="s">
+        <v>420</v>
+      </c>
+      <c r="M178" t="n">
+        <v>10.00161561</v>
+      </c>
+      <c r="N178" t="n">
+        <v>21.01712498</v>
+      </c>
+      <c r="O178" t="n">
+        <v>45.5280583333333</v>
+      </c>
+      <c r="P178" t="n">
+        <v>-122.666113888889</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>193</v>
+      </c>
+      <c r="B179" t="s">
+        <v>375</v>
+      </c>
+      <c r="C179" t="s">
+        <v>380</v>
+      </c>
+      <c r="D179" t="s">
+        <v>381</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F179" t="s">
+        <v>382</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.137730971</v>
+      </c>
+      <c r="H179" t="s">
+        <v>383</v>
+      </c>
+      <c r="I179" t="n">
+        <v>61.75390625</v>
+      </c>
+      <c r="J179" t="s">
+        <v>383</v>
+      </c>
+      <c r="K179" t="n">
+        <v>61.75390625</v>
+      </c>
+      <c r="L179" t="s">
+        <v>420</v>
+      </c>
+      <c r="M179" t="n">
+        <v>14.14874255</v>
+      </c>
+      <c r="N179" t="n">
+        <v>21.22112676</v>
+      </c>
+      <c r="O179" t="n">
+        <v>45.5280611111111</v>
+      </c>
+      <c r="P179" t="n">
+        <v>-122.666091666667</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>194</v>
+      </c>
+      <c r="B180" t="s">
+        <v>376</v>
+      </c>
+      <c r="C180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q180" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>195</v>
+      </c>
+      <c r="B181" t="s">
+        <v>377</v>
+      </c>
+      <c r="C181" t="s">
+        <v>380</v>
+      </c>
+      <c r="D181" t="s">
+        <v>381</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F181" t="s">
+        <v>382</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.1267943532</v>
+      </c>
+      <c r="H181" t="s">
+        <v>383</v>
+      </c>
+      <c r="I181" t="n">
+        <v>9.133479117</v>
+      </c>
+      <c r="J181" t="s">
+        <v>383</v>
+      </c>
+      <c r="K181" t="n">
+        <v>9.133479117</v>
+      </c>
+      <c r="L181" t="s">
+        <v>421</v>
+      </c>
+      <c r="M181" t="n">
+        <v>10.75912172</v>
+      </c>
+      <c r="N181" t="n">
+        <v>66.43609698</v>
+      </c>
+      <c r="O181" t="n">
+        <v>45.5590888888889</v>
+      </c>
+      <c r="P181" t="n">
+        <v>-122.666969444444</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>196</v>
+      </c>
+      <c r="B182" t="s">
+        <v>378</v>
+      </c>
+      <c r="C182" t="s">
+        <v>380</v>
+      </c>
+      <c r="D182" t="s">
+        <v>381</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F182" t="s">
+        <v>382</v>
+      </c>
+      <c r="G182" t="n">
+        <v>3.427178144</v>
+      </c>
+      <c r="H182" t="s">
+        <v>383</v>
+      </c>
+      <c r="I182" t="n">
+        <v>282.0050659</v>
+      </c>
+      <c r="J182" t="s">
+        <v>383</v>
+      </c>
+      <c r="K182" t="n">
+        <v>282.0050659</v>
+      </c>
+      <c r="L182" t="s">
+        <v>421</v>
+      </c>
+      <c r="M182" t="n">
+        <v>6.262724118</v>
+      </c>
+      <c r="N182" t="n">
+        <v>66.66373802</v>
+      </c>
+      <c r="O182" t="n">
+        <v>45.5590888888889</v>
+      </c>
+      <c r="P182" t="n">
+        <v>-122.666916666667</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>197</v>
+      </c>
+      <c r="B183" t="s">
+        <v>379</v>
+      </c>
+      <c r="C183" t="s">
+        <v>380</v>
+      </c>
+      <c r="D183" t="s">
+        <v>381</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F183" t="s">
+        <v>382</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.8056196572</v>
+      </c>
+      <c r="H183" t="s">
+        <v>383</v>
+      </c>
+      <c r="I183" t="n">
+        <v>165.6939698</v>
+      </c>
+      <c r="J183" t="s">
+        <v>383</v>
+      </c>
+      <c r="K183" t="n">
+        <v>165.6939698</v>
+      </c>
+      <c r="L183" t="s">
+        <v>421</v>
+      </c>
+      <c r="M183" t="n">
+        <v>20.43236098</v>
+      </c>
+      <c r="N183" t="n">
+        <v>66.46588664</v>
+      </c>
+      <c r="O183" t="n">
+        <v>45.5591361111111</v>
+      </c>
+      <c r="P183" t="n">
+        <v>-122.661727777778</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>
